--- a/Image_Analysis/tissue_image_stats.xlsx
+++ b/Image_Analysis/tissue_image_stats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfai/Documents/GitHub/Minimal-Lung-Model/Image_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06802445-A62D-6C4F-807B-12EF0EBB8C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E58E30-0243-0C4E-936F-244299E9C692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>slide</t>
   </si>
@@ -46,18 +46,30 @@
   <si>
     <t>R_equiv</t>
   </si>
+  <si>
+    <t>Rmidpoint</t>
+  </si>
+  <si>
+    <t>T_tilde</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,12 +88,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,24 +411,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5DFB43-4550-BE49-B649-C7526DD2BE42}">
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="3.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="9" width="6.5" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.42578125" customWidth="true"/>
+    <col min="3" max="3" width="19.140625" customWidth="true"/>
+    <col min="4" max="4" width="13.28515625" customWidth="true"/>
+    <col min="7" max="7" width="8.33203125" customWidth="true"/>
+    <col min="8" max="9" width="6.5" customWidth="true"/>
+    <col min="5" max="5" width="14.42578125" customWidth="true"/>
+    <col min="6" max="6" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +442,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,8 +462,14 @@
       <c r="D2">
         <v>18.69500282709674</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>6.9372253434064479</v>
+      </c>
+      <c r="F2">
+        <v>1.4763289310147187</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -454,8 +482,14 @@
       <c r="D3">
         <v>19.344405808727423</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2.2797626108962969</v>
+      </c>
+      <c r="F3">
+        <v>1.4770963601789482</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -468,8 +502,14 @@
       <c r="D4">
         <v>21.102872210401671</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>31.363839747115957</v>
+      </c>
+      <c r="F4">
+        <v>1.4452742559817877</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -482,3607 +522,5175 @@
       <c r="D5">
         <v>19.655992320703184</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>35.73096875944475</v>
+      </c>
+      <c r="F5">
+        <v>1.4434498301843561</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>20.920957352143194</v>
+      </c>
+      <c r="E6">
+        <v>42.810344747392584</v>
+      </c>
+      <c r="F6">
+        <v>1.2749585978714053</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="0">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="0">
         <v>119</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="0">
         <v>15.457774786362284</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E7" s="0">
+        <v>5.9703140161956672</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1.5600297963732606</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="0">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="0">
         <v>108</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="0">
         <v>15.275767348527346</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E8" s="0">
+        <v>29.185773435511834</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1.5489676230597358</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
+      <c r="B9" s="0">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0">
         <v>92</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="0">
         <v>16.09441807195109</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E9" s="0">
+        <v>63.171388568659943</v>
+      </c>
+      <c r="F9" s="0">
+        <v>1.3427482483898123</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="0">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="0">
         <v>108</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="0">
         <v>14.709801929940149</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="E10" s="0">
+        <v>39.801978139592137</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1.5049498051372399</v>
+      </c>
+    </row>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="0">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="0">
         <v>89</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="0">
         <v>18.010753812959116</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11">
+      <c r="E11" s="0">
+        <v>58.902186865804815</v>
+      </c>
+      <c r="F11" s="0">
+        <v>1.4385382296691742</v>
+      </c>
+    </row>
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>3</v>
+      </c>
+      <c r="B12" s="0">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="0">
         <v>78</v>
       </c>
-      <c r="D11">
+      <c r="D12" s="0">
         <v>17.697180519030219</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12">
+      <c r="E12" s="0">
+        <v>99.423035771679906</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.3264122245517362</v>
+      </c>
+    </row>
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0">
         <v>2</v>
       </c>
-      <c r="C12">
+      <c r="C13" s="0">
         <v>83</v>
       </c>
-      <c r="D12">
+      <c r="D13" s="0">
         <v>17.952418964331567</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
+      <c r="E13" s="0">
+        <v>78.104074858578173</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1.5549258399797357</v>
+      </c>
+    </row>
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>3</v>
+      </c>
+      <c r="B14" s="0">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0">
         <v>59</v>
       </c>
-      <c r="D13">
+      <c r="D14" s="0">
         <v>25.075667406454929</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
+      <c r="E14" s="0">
+        <v>66.9754057230315</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1.363156154395456</v>
+      </c>
+    </row>
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>3</v>
+      </c>
+      <c r="B15" s="0">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="0">
         <v>83</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="0">
         <v>18.026002981704934</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
+      <c r="E15" s="0">
+        <v>5.8131652264274605</v>
+      </c>
+      <c r="F15" s="0">
+        <v>1.6029224202132704</v>
+      </c>
+    </row>
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0">
         <v>5</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="0">
         <v>100</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="0">
         <v>14.394246572109846</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
+      <c r="E16" s="0">
+        <v>135.7869407319119</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1.5167830758661656</v>
+      </c>
+    </row>
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="0">
         <v>83</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="0">
         <v>17.984680428096926</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
+      <c r="E17" s="0">
+        <v>63.122441520688469</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1.5174627397919855</v>
+      </c>
+    </row>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C18" s="0">
         <v>83</v>
       </c>
-      <c r="D17">
+      <c r="D18" s="0">
         <v>16.81572580824723</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18">
+      <c r="E18" s="0">
+        <v>11.135485979815805</v>
+      </c>
+      <c r="F18" s="0">
+        <v>1.3531671275281811</v>
+      </c>
+    </row>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0">
         <v>8</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="0">
         <v>110</v>
       </c>
-      <c r="D18">
+      <c r="D19" s="0">
         <v>12.991824591274373</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
+      <c r="E19" s="0">
+        <v>76.581382906822</v>
+      </c>
+      <c r="F19" s="0">
+        <v>1.6979648866359562</v>
+      </c>
+    </row>
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>3</v>
+      </c>
+      <c r="B20" s="0">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="0">
         <v>86</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="0">
         <v>20.93326067017416</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
+      <c r="E20" s="0">
+        <v>58.403085119945722</v>
+      </c>
+      <c r="F20" s="0">
+        <v>1.375254243676193</v>
+      </c>
+    </row>
+    <row r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="0">
         <v>93</v>
       </c>
-      <c r="D20">
+      <c r="D21" s="0">
         <v>17.669603890142866</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
+      <c r="E21" s="0">
+        <v>47.745502122683966</v>
+      </c>
+      <c r="F21" s="0">
+        <v>1.4837209729779206</v>
+      </c>
+    </row>
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="0">
         <v>107</v>
       </c>
-      <c r="D21">
+      <c r="D22" s="0">
         <v>13.207606007237876</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
+      <c r="E22" s="0">
+        <v>131.97148456103147</v>
+      </c>
+      <c r="F22" s="0">
+        <v>1.450438240330169</v>
+      </c>
+    </row>
+    <row r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C23" s="0">
         <v>87</v>
       </c>
-      <c r="D22">
+      <c r="D23" s="0">
         <v>15.596237001089605</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="E23" s="0">
+        <v>30.284046554295323</v>
+      </c>
+      <c r="F23" s="0">
+        <v>1.5146144921167961</v>
+      </c>
+    </row>
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="0">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="0">
         <v>74</v>
       </c>
-      <c r="D23">
+      <c r="D24" s="0">
         <v>20.716039758018113</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="E24" s="0">
+        <v>165.08148637337061</v>
+      </c>
+      <c r="F24" s="0">
+        <v>1.3567239667741875</v>
+      </c>
+    </row>
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="0">
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="0">
         <v>2</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="0">
         <v>84</v>
       </c>
-      <c r="D24">
+      <c r="D25" s="0">
         <v>21.706357930945519</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="E25" s="0">
+        <v>9.7544232345694333</v>
+      </c>
+      <c r="F25" s="0">
+        <v>1.5347799980218297</v>
+      </c>
+    </row>
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="0">
         <v>4</v>
       </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
+      <c r="B26" s="0">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0">
         <v>90</v>
       </c>
-      <c r="D25">
+      <c r="D26" s="0">
         <v>21.26263464942156</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="E26" s="0">
+        <v>14.518636621962607</v>
+      </c>
+      <c r="F26" s="0">
+        <v>1.532322346349245</v>
+      </c>
+    </row>
+    <row r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="0">
         <v>4</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="0">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="C27" s="0">
         <v>110</v>
       </c>
-      <c r="D26">
+      <c r="D27" s="0">
         <v>18.343208253724054</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="E27" s="0">
+        <v>9.0089267029808795</v>
+      </c>
+      <c r="F27" s="0">
+        <v>1.6256361189633106</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="0">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="0">
         <v>5</v>
       </c>
-      <c r="C27">
+      <c r="C28" s="0">
         <v>113</v>
       </c>
-      <c r="D27">
+      <c r="D28" s="0">
         <v>18.16364473982669</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="E28" s="0">
+        <v>14.455914678081069</v>
+      </c>
+      <c r="F28" s="0">
+        <v>1.3729730143575316</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="0">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="0">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="C29" s="0">
         <v>94</v>
       </c>
-      <c r="D28">
+      <c r="D29" s="0">
         <v>17.457008040638051</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="E29" s="0">
+        <v>46.400922317945408</v>
+      </c>
+      <c r="F29" s="0">
+        <v>1.3976491325570739</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="0">
         <v>5</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="0">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C30" s="0">
         <v>125</v>
       </c>
-      <c r="D29">
+      <c r="D30" s="0">
         <v>15.724172780652655</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="E30" s="0">
+        <v>40.327570540982272</v>
+      </c>
+      <c r="F30" s="0">
+        <v>1.6006753242142766</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="0">
         <v>5</v>
       </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
+      <c r="B31" s="0">
+        <v>3</v>
+      </c>
+      <c r="C31" s="0">
         <v>114</v>
       </c>
-      <c r="D30">
+      <c r="D31" s="0">
         <v>17.38661819279579</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="E31" s="0">
+        <v>42.932859144760144</v>
+      </c>
+      <c r="F31" s="0">
+        <v>1.6995979993994783</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="0">
         <v>5</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="0">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C32" s="0">
         <v>117</v>
       </c>
-      <c r="D31">
+      <c r="D32" s="0">
         <v>16.300751478127591</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="E32" s="0">
+        <v>48.406454201426975</v>
+      </c>
+      <c r="F32" s="0">
+        <v>1.5328266180506733</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="0">
         <v>5</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="0">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C33" s="0">
         <v>112</v>
       </c>
-      <c r="D32">
+      <c r="D33" s="0">
         <v>16.367681462215508</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="E33" s="0">
+        <v>12.960977625750468</v>
+      </c>
+      <c r="F33" s="0">
+        <v>1.4327913061812874</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="0">
         <v>5</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="0">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C34" s="0">
         <v>102</v>
       </c>
-      <c r="D33">
+      <c r="D34" s="0">
         <v>18.341441785942205</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="E34" s="0">
+        <v>7.4980344028423307</v>
+      </c>
+      <c r="F34" s="0">
+        <v>1.4892365462568604</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35" s="0">
         <v>5</v>
       </c>
-      <c r="B34">
+      <c r="B35" s="0">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C35" s="0">
         <v>130</v>
       </c>
-      <c r="D34">
+      <c r="D35" s="0">
         <v>14.770584759630076</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="E35" s="0">
+        <v>46.423096271014266</v>
+      </c>
+      <c r="F35" s="0">
+        <v>1.5768126975849814</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="0">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="B36" s="0">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C36" s="0">
         <v>92</v>
       </c>
-      <c r="D35">
+      <c r="D36" s="0">
         <v>18.054104974233304</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="E36" s="0">
+        <v>0.88197316752039534</v>
+      </c>
+      <c r="F36" s="0">
+        <v>1.5941007622143109</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="0">
         <v>5</v>
       </c>
-      <c r="B36">
+      <c r="B37" s="0">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C37" s="0">
         <v>100</v>
       </c>
-      <c r="D36">
+      <c r="D37" s="0">
         <v>18.038956693315548</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="E37" s="0">
+        <v>20.196447619615366</v>
+      </c>
+      <c r="F37" s="0">
+        <v>1.4481159931298928</v>
+      </c>
+    </row>
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38" s="0">
         <v>5</v>
       </c>
-      <c r="B37">
+      <c r="B38" s="0">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C38" s="0">
         <v>102</v>
       </c>
-      <c r="D37">
+      <c r="D38" s="0">
         <v>16.992524093058087</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="E38" s="0">
+        <v>15.450522544859181</v>
+      </c>
+      <c r="F38" s="0">
+        <v>1.5147461892161378</v>
+      </c>
+    </row>
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39" s="0">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="0">
         <v>11</v>
       </c>
-      <c r="C38">
+      <c r="C39" s="0">
         <v>92</v>
       </c>
-      <c r="D38">
+      <c r="D39" s="0">
         <v>18.839662620157487</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="E39" s="0">
+        <v>11.689218233024228</v>
+      </c>
+      <c r="F39" s="0">
+        <v>1.5950797003972514</v>
+      </c>
+    </row>
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40" s="0">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="0">
         <v>1</v>
       </c>
-      <c r="C39">
+      <c r="C40" s="0">
         <v>90</v>
       </c>
-      <c r="D39">
+      <c r="D40" s="0">
         <v>19.170580671797463</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="E40" s="0">
+        <v>31.168991062197339</v>
+      </c>
+      <c r="F40" s="0">
+        <v>1.5814318853495943</v>
+      </c>
+    </row>
+    <row r="41" x14ac:dyDescent="0.2">
+      <c r="A41" s="0">
         <v>6</v>
       </c>
-      <c r="B40">
+      <c r="B41" s="0">
         <v>2</v>
       </c>
-      <c r="C40">
+      <c r="C41" s="0">
         <v>100</v>
       </c>
-      <c r="D40">
+      <c r="D41" s="0">
         <v>17.831065319351957</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="E41" s="0">
+        <v>40.60333032973076</v>
+      </c>
+      <c r="F41" s="0">
+        <v>1.4398327644305851</v>
+      </c>
+    </row>
+    <row r="42" x14ac:dyDescent="0.2">
+      <c r="A42" s="0">
         <v>6</v>
       </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
+      <c r="B42" s="0">
+        <v>3</v>
+      </c>
+      <c r="C42" s="0">
         <v>106</v>
       </c>
-      <c r="D41">
+      <c r="D42" s="0">
         <v>17.242257379409015</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="E42" s="0">
+        <v>17.105716495099852</v>
+      </c>
+      <c r="F42" s="0">
+        <v>1.5412674274039992</v>
+      </c>
+    </row>
+    <row r="43" x14ac:dyDescent="0.2">
+      <c r="A43" s="0">
         <v>6</v>
       </c>
-      <c r="B42">
+      <c r="B43" s="0">
         <v>4</v>
       </c>
-      <c r="C42">
+      <c r="C43" s="0">
         <v>97</v>
       </c>
-      <c r="D42">
+      <c r="D43" s="0">
         <v>16.390333003195597</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="E43" s="0">
+        <v>32.909339188576752</v>
+      </c>
+      <c r="F43" s="0">
+        <v>1.3356010214339418</v>
+      </c>
+    </row>
+    <row r="44" x14ac:dyDescent="0.2">
+      <c r="A44" s="0">
         <v>6</v>
       </c>
-      <c r="B43">
+      <c r="B44" s="0">
         <v>5</v>
       </c>
-      <c r="C43">
+      <c r="C44" s="0">
         <v>83</v>
       </c>
-      <c r="D43">
+      <c r="D44" s="0">
         <v>19.689596030526666</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="E44" s="0">
+        <v>46.75297125936774</v>
+      </c>
+      <c r="F44" s="0">
+        <v>1.4890051296163183</v>
+      </c>
+    </row>
+    <row r="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="0">
         <v>6</v>
       </c>
-      <c r="B44">
+      <c r="B45" s="0">
         <v>6</v>
       </c>
-      <c r="C44">
+      <c r="C45" s="0">
         <v>111</v>
       </c>
-      <c r="D44">
+      <c r="D45" s="0">
         <v>16.938445479427639</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="E45" s="0">
+        <v>14.662301413210317</v>
+      </c>
+      <c r="F45" s="0">
+        <v>1.7771563965979837</v>
+      </c>
+    </row>
+    <row r="46" x14ac:dyDescent="0.2">
+      <c r="A46" s="0">
         <v>6</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="0">
         <v>7</v>
       </c>
-      <c r="C45">
+      <c r="C46" s="0">
         <v>100</v>
       </c>
-      <c r="D45">
+      <c r="D46" s="0">
         <v>16.508018310230661</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="E46" s="0">
+        <v>20.980510482717161</v>
+      </c>
+      <c r="F46" s="0">
+        <v>1.5321626939089743</v>
+      </c>
+    </row>
+    <row r="47" x14ac:dyDescent="0.2">
+      <c r="A47" s="0">
         <v>6</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="0">
         <v>8</v>
       </c>
-      <c r="C46">
+      <c r="C47" s="0">
         <v>96</v>
       </c>
-      <c r="D46">
+      <c r="D47" s="0">
         <v>17.545260981741308</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="E47" s="0">
+        <v>23.197827687033779</v>
+      </c>
+      <c r="F47" s="0">
+        <v>1.5621424582236785</v>
+      </c>
+    </row>
+    <row r="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="0">
         <v>6</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="0">
         <v>9</v>
       </c>
-      <c r="C47">
+      <c r="C48" s="0">
         <v>101</v>
       </c>
-      <c r="D47">
+      <c r="D48" s="0">
         <v>19.024983352947206</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="E48" s="0">
+        <v>36.470822798727013</v>
+      </c>
+      <c r="F48" s="0">
+        <v>1.5244257302770921</v>
+      </c>
+    </row>
+    <row r="49" x14ac:dyDescent="0.2">
+      <c r="A49" s="0">
         <v>6</v>
       </c>
-      <c r="B48">
+      <c r="B49" s="0">
         <v>10</v>
       </c>
-      <c r="C48">
+      <c r="C49" s="0">
         <v>79</v>
       </c>
-      <c r="D48">
+      <c r="D49" s="0">
         <v>21.524319831092679</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="E49" s="0">
+        <v>16.531050958681728</v>
+      </c>
+      <c r="F49" s="0">
+        <v>1.636238276461101</v>
+      </c>
+    </row>
+    <row r="50" x14ac:dyDescent="0.2">
+      <c r="A50" s="0">
         <v>7</v>
       </c>
-      <c r="B49">
+      <c r="B50" s="0">
         <v>1</v>
       </c>
-      <c r="C49">
+      <c r="C50" s="0">
         <v>105</v>
       </c>
-      <c r="D49">
+      <c r="D50" s="0">
         <v>17.14032784644181</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="E50" s="0">
+        <v>52.687767969873498</v>
+      </c>
+      <c r="F50" s="0">
+        <v>1.7795551035118391</v>
+      </c>
+    </row>
+    <row r="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="0">
         <v>7</v>
       </c>
-      <c r="B50">
+      <c r="B51" s="0">
         <v>2</v>
       </c>
-      <c r="C50">
+      <c r="C51" s="0">
         <v>93</v>
       </c>
-      <c r="D50">
+      <c r="D51" s="0">
         <v>18.927277048084086</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="E51" s="0">
+        <v>28.31774127363402</v>
+      </c>
+      <c r="F51" s="0">
+        <v>1.3371968270080536</v>
+      </c>
+    </row>
+    <row r="52" x14ac:dyDescent="0.2">
+      <c r="A52" s="0">
         <v>7</v>
       </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51">
+      <c r="B52" s="0">
+        <v>3</v>
+      </c>
+      <c r="C52" s="0">
         <v>94</v>
       </c>
-      <c r="D51">
+      <c r="D52" s="0">
         <v>18.454567187177535</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="E52" s="0">
+        <v>6.2436626788661114</v>
+      </c>
+      <c r="F52" s="0">
+        <v>1.6178844846526244</v>
+      </c>
+    </row>
+    <row r="53" x14ac:dyDescent="0.2">
+      <c r="A53" s="0">
         <v>7</v>
       </c>
-      <c r="B52">
+      <c r="B53" s="0">
         <v>4</v>
       </c>
-      <c r="C52">
+      <c r="C53" s="0">
         <v>96</v>
       </c>
-      <c r="D52">
+      <c r="D53" s="0">
         <v>17.420611902624415</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="E53" s="0">
+        <v>40.081525915071445</v>
+      </c>
+      <c r="F53" s="0">
+        <v>1.6776702009391129</v>
+      </c>
+    </row>
+    <row r="54" x14ac:dyDescent="0.2">
+      <c r="A54" s="0">
         <v>7</v>
       </c>
-      <c r="B53">
+      <c r="B54" s="0">
         <v>5</v>
       </c>
-      <c r="C53">
+      <c r="C54" s="0">
         <v>102</v>
       </c>
-      <c r="D53">
+      <c r="D54" s="0">
         <v>16.762882029977614</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="E54" s="0">
+        <v>1.6738377395905404</v>
+      </c>
+      <c r="F54" s="0">
+        <v>1.7893897589148628</v>
+      </c>
+    </row>
+    <row r="55" x14ac:dyDescent="0.2">
+      <c r="A55" s="0">
         <v>7</v>
       </c>
-      <c r="B54">
+      <c r="B55" s="0">
         <v>6</v>
       </c>
-      <c r="C54">
+      <c r="C55" s="0">
         <v>111</v>
       </c>
-      <c r="D54">
+      <c r="D55" s="0">
         <v>15.885852452689454</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="E55" s="0">
+        <v>48.965663225679528</v>
+      </c>
+      <c r="F55" s="0">
+        <v>1.8119831433699412</v>
+      </c>
+    </row>
+    <row r="56" x14ac:dyDescent="0.2">
+      <c r="A56" s="0">
         <v>8</v>
       </c>
-      <c r="B55">
+      <c r="B56" s="0">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="C56" s="0">
         <v>87</v>
       </c>
-      <c r="D55">
+      <c r="D56" s="0">
         <v>18.359201660046114</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="E56" s="0">
+        <v>64.410017256913846</v>
+      </c>
+      <c r="F56" s="0">
+        <v>1.6814943272852272</v>
+      </c>
+    </row>
+    <row r="57" x14ac:dyDescent="0.2">
+      <c r="A57" s="0">
         <v>8</v>
       </c>
-      <c r="B56">
+      <c r="B57" s="0">
         <v>2</v>
       </c>
-      <c r="C56">
+      <c r="C57" s="0">
         <v>80</v>
       </c>
-      <c r="D56">
+      <c r="D57" s="0">
         <v>18.967451529533427</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="E57" s="0">
+        <v>72.999710269584099</v>
+      </c>
+      <c r="F57" s="0">
+        <v>1.4790261647063865</v>
+      </c>
+    </row>
+    <row r="58" x14ac:dyDescent="0.2">
+      <c r="A58" s="0">
         <v>8</v>
       </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
+      <c r="B58" s="0">
+        <v>3</v>
+      </c>
+      <c r="C58" s="0">
         <v>86</v>
       </c>
-      <c r="D57">
+      <c r="D58" s="0">
         <v>20.496811809825964</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="E58" s="0">
+        <v>26.656061061348314</v>
+      </c>
+      <c r="F58" s="0">
+        <v>1.8331355407507333</v>
+      </c>
+    </row>
+    <row r="59" x14ac:dyDescent="0.2">
+      <c r="A59" s="0">
         <v>8</v>
       </c>
-      <c r="B58">
+      <c r="B59" s="0">
         <v>4</v>
       </c>
-      <c r="C58">
+      <c r="C59" s="0">
         <v>93</v>
       </c>
-      <c r="D58">
+      <c r="D59" s="0">
         <v>19.018664732526542</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="E59" s="0">
+        <v>36.660025680576375</v>
+      </c>
+      <c r="F59" s="0">
+        <v>1.5409027569544129</v>
+      </c>
+    </row>
+    <row r="60" x14ac:dyDescent="0.2">
+      <c r="A60" s="0">
         <v>8</v>
       </c>
-      <c r="B59">
+      <c r="B60" s="0">
         <v>5</v>
       </c>
-      <c r="C59">
+      <c r="C60" s="0">
         <v>97</v>
       </c>
-      <c r="D59">
+      <c r="D60" s="0">
         <v>18.331126562813107</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="E60" s="0">
+        <v>40.436925497139491</v>
+      </c>
+      <c r="F60" s="0">
+        <v>1.8013035273066007</v>
+      </c>
+    </row>
+    <row r="61" x14ac:dyDescent="0.2">
+      <c r="A61" s="0">
         <v>8</v>
       </c>
-      <c r="B60">
+      <c r="B61" s="0">
         <v>6</v>
       </c>
-      <c r="C60">
+      <c r="C61" s="0">
         <v>98</v>
       </c>
-      <c r="D60">
+      <c r="D61" s="0">
         <v>17.573589441584655</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="E61" s="0">
+        <v>49.871097955612051</v>
+      </c>
+      <c r="F61" s="0">
+        <v>1.9735223997921174</v>
+      </c>
+    </row>
+    <row r="62" x14ac:dyDescent="0.2">
+      <c r="A62" s="0">
         <v>8</v>
       </c>
-      <c r="B61">
+      <c r="B62" s="0">
         <v>7</v>
       </c>
-      <c r="C61">
+      <c r="C62" s="0">
         <v>84</v>
       </c>
-      <c r="D61">
+      <c r="D62" s="0">
         <v>17.820248222078476</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="E62" s="0">
+        <v>12.366286665032762</v>
+      </c>
+      <c r="F62" s="0">
+        <v>1.6011776513307052</v>
+      </c>
+    </row>
+    <row r="63" x14ac:dyDescent="0.2">
+      <c r="A63" s="0">
         <v>8</v>
       </c>
-      <c r="B62">
+      <c r="B63" s="0">
         <v>8</v>
       </c>
-      <c r="C62">
+      <c r="C63" s="0">
         <v>61</v>
       </c>
-      <c r="D62">
+      <c r="D63" s="0">
         <v>24.043760770726546</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="E63" s="0">
+        <v>50.008871773667316</v>
+      </c>
+      <c r="F63" s="0">
+        <v>1.6912841508494962</v>
+      </c>
+    </row>
+    <row r="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="0">
         <v>8</v>
       </c>
-      <c r="B63">
+      <c r="B64" s="0">
         <v>9</v>
       </c>
-      <c r="C63">
+      <c r="C64" s="0">
         <v>92</v>
       </c>
-      <c r="D63">
+      <c r="D64" s="0">
         <v>17.321248513477965</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="E64" s="0">
+        <v>3.832775294760395</v>
+      </c>
+      <c r="F64" s="0">
+        <v>1.6344940421111989</v>
+      </c>
+    </row>
+    <row r="65" x14ac:dyDescent="0.2">
+      <c r="A65" s="0">
         <v>8</v>
       </c>
-      <c r="B64">
+      <c r="B65" s="0">
         <v>10</v>
       </c>
-      <c r="C64">
+      <c r="C65" s="0">
         <v>80</v>
       </c>
-      <c r="D64">
+      <c r="D65" s="0">
         <v>18.321544873498912</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="E65" s="0">
+        <v>2.897984553290808</v>
+      </c>
+      <c r="F65" s="0">
+        <v>1.5988462330450985</v>
+      </c>
+    </row>
+    <row r="66" x14ac:dyDescent="0.2">
+      <c r="A66" s="0">
         <v>9</v>
       </c>
-      <c r="B65">
+      <c r="B66" s="0">
         <v>1</v>
       </c>
-      <c r="C65">
+      <c r="C66" s="0">
         <v>141</v>
       </c>
-      <c r="D65">
+      <c r="D66" s="0">
         <v>13.448878711063033</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="E66" s="0">
+        <v>27.303249531963246</v>
+      </c>
+      <c r="F66" s="0">
+        <v>2.388309329362682</v>
+      </c>
+    </row>
+    <row r="67" x14ac:dyDescent="0.2">
+      <c r="A67" s="0">
         <v>9</v>
       </c>
-      <c r="B66">
+      <c r="B67" s="0">
         <v>2</v>
       </c>
-      <c r="C66">
+      <c r="C67" s="0">
         <v>102</v>
       </c>
-      <c r="D66">
+      <c r="D67" s="0">
         <v>15.658767963770876</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="E67" s="0">
+        <v>2.7567709752397667</v>
+      </c>
+      <c r="F67" s="0">
+        <v>2.0703044258313104</v>
+      </c>
+    </row>
+    <row r="68" x14ac:dyDescent="0.2">
+      <c r="A68" s="0">
         <v>9</v>
       </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67">
+      <c r="B68" s="0">
+        <v>3</v>
+      </c>
+      <c r="C68" s="0">
         <v>94</v>
       </c>
-      <c r="D67">
+      <c r="D68" s="0">
         <v>14.593682543291173</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="E68" s="0">
+        <v>3.9868336704994083</v>
+      </c>
+      <c r="F68" s="0">
+        <v>1.970132621137207</v>
+      </c>
+    </row>
+    <row r="69" x14ac:dyDescent="0.2">
+      <c r="A69" s="0">
         <v>9</v>
       </c>
-      <c r="B68">
+      <c r="B69" s="0">
         <v>4</v>
       </c>
-      <c r="C68">
+      <c r="C69" s="0">
         <v>86</v>
       </c>
-      <c r="D68">
+      <c r="D69" s="0">
         <v>17.195348286936408</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="E69" s="0">
+        <v>47.124159862750453</v>
+      </c>
+      <c r="F69" s="0">
+        <v>1.863806763076451</v>
+      </c>
+    </row>
+    <row r="70" x14ac:dyDescent="0.2">
+      <c r="A70" s="0">
         <v>9</v>
       </c>
-      <c r="B69">
+      <c r="B70" s="0">
         <v>5</v>
       </c>
-      <c r="C69">
+      <c r="C70" s="0">
         <v>98</v>
       </c>
-      <c r="D69">
+      <c r="D70" s="0">
         <v>14.038353138217897</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="E70" s="0">
+        <v>38.699706579182646</v>
+      </c>
+      <c r="F70" s="0">
+        <v>2.4197707847347827</v>
+      </c>
+    </row>
+    <row r="71" x14ac:dyDescent="0.2">
+      <c r="A71" s="0">
         <v>10</v>
       </c>
-      <c r="B70">
+      <c r="B71" s="0">
         <v>1</v>
       </c>
-      <c r="C70">
+      <c r="C71" s="0">
         <v>114</v>
       </c>
-      <c r="D70">
+      <c r="D71" s="0">
         <v>14.031873307599847</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="E71" s="0">
+        <v>61.165922836233875</v>
+      </c>
+      <c r="F71" s="0">
+        <v>1.4788757485725217</v>
+      </c>
+    </row>
+    <row r="72" x14ac:dyDescent="0.2">
+      <c r="A72" s="0">
         <v>10</v>
       </c>
-      <c r="B71">
+      <c r="B72" s="0">
         <v>2</v>
       </c>
-      <c r="C71">
+      <c r="C72" s="0">
         <v>103</v>
       </c>
-      <c r="D71">
+      <c r="D72" s="0">
         <v>16.057460319309598</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="E72" s="0">
+        <v>20.078340225385759</v>
+      </c>
+      <c r="F72" s="0">
+        <v>1.529478416869557</v>
+      </c>
+    </row>
+    <row r="73" x14ac:dyDescent="0.2">
+      <c r="A73" s="0">
         <v>10</v>
       </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72">
+      <c r="B73" s="0">
+        <v>3</v>
+      </c>
+      <c r="C73" s="0">
         <v>81</v>
       </c>
-      <c r="D72">
+      <c r="D73" s="0">
         <v>17.618461496636741</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="E73" s="0">
+        <v>93.157921073431623</v>
+      </c>
+      <c r="F73" s="0">
+        <v>1.2634230398615047</v>
+      </c>
+    </row>
+    <row r="74" x14ac:dyDescent="0.2">
+      <c r="A74" s="0">
         <v>10</v>
       </c>
-      <c r="B73">
+      <c r="B74" s="0">
         <v>4</v>
       </c>
-      <c r="C73">
+      <c r="C74" s="0">
         <v>103</v>
       </c>
-      <c r="D73">
+      <c r="D74" s="0">
         <v>16.463901968794623</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="E74" s="0">
+        <v>43.385280414381171</v>
+      </c>
+      <c r="F74" s="0">
+        <v>1.7493736858015538</v>
+      </c>
+    </row>
+    <row r="75" x14ac:dyDescent="0.2">
+      <c r="A75" s="0">
         <v>10</v>
       </c>
-      <c r="B74">
+      <c r="B75" s="0">
         <v>5</v>
       </c>
-      <c r="C74">
+      <c r="C75" s="0">
         <v>120</v>
       </c>
-      <c r="D74">
+      <c r="D75" s="0">
         <v>14.736144940783147</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="E75" s="0">
+        <v>26.361712214717134</v>
+      </c>
+      <c r="F75" s="0">
+        <v>1.6514403268014579</v>
+      </c>
+    </row>
+    <row r="76" x14ac:dyDescent="0.2">
+      <c r="A76" s="0">
         <v>11</v>
       </c>
-      <c r="B75">
+      <c r="B76" s="0">
         <v>1</v>
       </c>
-      <c r="C75">
+      <c r="C76" s="0">
         <v>90</v>
       </c>
-      <c r="D75">
+      <c r="D76" s="0">
         <v>18.71457554691294</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="E76" s="0">
+        <v>38.37460127724988</v>
+      </c>
+      <c r="F76" s="0">
+        <v>1.1403625619478628</v>
+      </c>
+    </row>
+    <row r="77" x14ac:dyDescent="0.2">
+      <c r="A77" s="0">
         <v>11</v>
       </c>
-      <c r="B76">
+      <c r="B77" s="0">
         <v>2</v>
       </c>
-      <c r="C76">
+      <c r="C77" s="0">
         <v>88</v>
       </c>
-      <c r="D76">
+      <c r="D77" s="0">
         <v>18.112327568095818</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="E77" s="0">
+        <v>89.730641327324548</v>
+      </c>
+      <c r="F77" s="0">
+        <v>1.2510765620852144</v>
+      </c>
+    </row>
+    <row r="78" x14ac:dyDescent="0.2">
+      <c r="A78" s="0">
         <v>11</v>
       </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77">
+      <c r="B78" s="0">
+        <v>3</v>
+      </c>
+      <c r="C78" s="0">
         <v>85</v>
       </c>
-      <c r="D77">
+      <c r="D78" s="0">
         <v>18.429630329357089</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="E78" s="0">
+        <v>66.89595952962614</v>
+      </c>
+      <c r="F78" s="0">
+        <v>1.7227933837180145</v>
+      </c>
+    </row>
+    <row r="79" x14ac:dyDescent="0.2">
+      <c r="A79" s="0">
         <v>11</v>
       </c>
-      <c r="B78">
+      <c r="B79" s="0">
         <v>4</v>
       </c>
-      <c r="C78">
+      <c r="C79" s="0">
         <v>91</v>
       </c>
-      <c r="D78">
+      <c r="D79" s="0">
         <v>17.143229276307654</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="E79" s="0">
+        <v>29.666862068300869</v>
+      </c>
+      <c r="F79" s="0">
+        <v>1.2733141339823155</v>
+      </c>
+    </row>
+    <row r="80" x14ac:dyDescent="0.2">
+      <c r="A80" s="0">
         <v>11</v>
       </c>
-      <c r="B79">
+      <c r="B80" s="0">
         <v>5</v>
       </c>
-      <c r="C79">
+      <c r="C80" s="0">
         <v>118</v>
       </c>
-      <c r="D79">
+      <c r="D80" s="0">
         <v>15.227372136854381</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="E80" s="0">
+        <v>3.9399383298366817</v>
+      </c>
+      <c r="F80" s="0">
+        <v>1.298769504613692</v>
+      </c>
+    </row>
+    <row r="81" x14ac:dyDescent="0.2">
+      <c r="A81" s="0">
         <v>11</v>
       </c>
-      <c r="B80">
+      <c r="B81" s="0">
         <v>6</v>
       </c>
-      <c r="C80">
+      <c r="C81" s="0">
         <v>85</v>
       </c>
-      <c r="D80">
+      <c r="D81" s="0">
         <v>17.788422992043316</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="E81" s="0">
+        <v>22.263088620996587</v>
+      </c>
+      <c r="F81" s="0">
+        <v>1.2430286259840853</v>
+      </c>
+    </row>
+    <row r="82" x14ac:dyDescent="0.2">
+      <c r="A82" s="0">
         <v>11</v>
       </c>
-      <c r="B81">
+      <c r="B82" s="0">
         <v>7</v>
       </c>
-      <c r="C81">
+      <c r="C82" s="0">
         <v>72</v>
       </c>
-      <c r="D81">
+      <c r="D82" s="0">
         <v>20.517447807083183</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="E82" s="0">
+        <v>12.76294955791851</v>
+      </c>
+      <c r="F82" s="0">
+        <v>1.3364662356415917</v>
+      </c>
+    </row>
+    <row r="83" x14ac:dyDescent="0.2">
+      <c r="A83" s="0">
         <v>11</v>
       </c>
-      <c r="B82">
+      <c r="B83" s="0">
         <v>8</v>
       </c>
-      <c r="C82">
+      <c r="C83" s="0">
         <v>105</v>
       </c>
-      <c r="D82">
+      <c r="D83" s="0">
         <v>16.824953539652682</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="E83" s="0">
+        <v>5.2296838284622025</v>
+      </c>
+      <c r="F83" s="0">
+        <v>1.3747932031284988</v>
+      </c>
+    </row>
+    <row r="84" x14ac:dyDescent="0.2">
+      <c r="A84" s="0">
         <v>11</v>
       </c>
-      <c r="B83">
+      <c r="B84" s="0">
         <v>9</v>
       </c>
-      <c r="C83">
+      <c r="C84" s="0">
         <v>79</v>
       </c>
-      <c r="D83">
+      <c r="D84" s="0">
         <v>17.047202041779485</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="E84" s="0">
+        <v>108.02160114168569</v>
+      </c>
+      <c r="F84" s="0">
+        <v>1.2528145141275275</v>
+      </c>
+    </row>
+    <row r="85" x14ac:dyDescent="0.2">
+      <c r="A85" s="0">
         <v>11</v>
       </c>
-      <c r="B84">
+      <c r="B85" s="0">
         <v>10</v>
       </c>
-      <c r="C84">
+      <c r="C85" s="0">
         <v>104</v>
       </c>
-      <c r="D84">
+      <c r="D85" s="0">
         <v>19.859431988340933</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="E85" s="0">
+        <v>28.157453529374919</v>
+      </c>
+      <c r="F85" s="0">
+        <v>1.4410034340483457</v>
+      </c>
+    </row>
+    <row r="86" x14ac:dyDescent="0.2">
+      <c r="A86" s="0">
         <v>12</v>
       </c>
-      <c r="B85">
+      <c r="B86" s="0">
         <v>1</v>
       </c>
-      <c r="C85">
+      <c r="C86" s="0">
         <v>75</v>
       </c>
-      <c r="D85">
+      <c r="D86" s="0">
         <v>19.05447264030623</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="E86" s="0">
+        <v>96.020687960548372</v>
+      </c>
+      <c r="F86" s="0">
+        <v>1.126663692269581</v>
+      </c>
+    </row>
+    <row r="87" x14ac:dyDescent="0.2">
+      <c r="A87" s="0">
         <v>12</v>
       </c>
-      <c r="B86">
+      <c r="B87" s="0">
         <v>2</v>
       </c>
-      <c r="C86">
+      <c r="C87" s="0">
         <v>76</v>
       </c>
-      <c r="D86">
+      <c r="D87" s="0">
         <v>19.229387388458072</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="E87" s="0">
+        <v>97.157331872847621</v>
+      </c>
+      <c r="F87" s="0">
+        <v>1.3312010061922406</v>
+      </c>
+    </row>
+    <row r="88" x14ac:dyDescent="0.2">
+      <c r="A88" s="0">
         <v>12</v>
       </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87">
+      <c r="B88" s="0">
+        <v>3</v>
+      </c>
+      <c r="C88" s="0">
         <v>79</v>
       </c>
-      <c r="D87">
+      <c r="D88" s="0">
         <v>18.525844779837687</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="E88" s="0">
+        <v>98.655092580995543</v>
+      </c>
+      <c r="F88" s="0">
+        <v>1.3080014380000351</v>
+      </c>
+    </row>
+    <row r="89" x14ac:dyDescent="0.2">
+      <c r="A89" s="0">
         <v>12</v>
       </c>
-      <c r="B88">
+      <c r="B89" s="0">
         <v>4</v>
       </c>
-      <c r="C88">
+      <c r="C89" s="0">
         <v>89</v>
       </c>
-      <c r="D88">
+      <c r="D89" s="0">
         <v>17.403553693865174</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="E89" s="0">
+        <v>58.50254010182028</v>
+      </c>
+      <c r="F89" s="0">
+        <v>1.2910553421173863</v>
+      </c>
+    </row>
+    <row r="90" x14ac:dyDescent="0.2">
+      <c r="A90" s="0">
         <v>12</v>
       </c>
-      <c r="B89">
+      <c r="B90" s="0">
         <v>5</v>
       </c>
-      <c r="C89">
+      <c r="C90" s="0">
         <v>64</v>
       </c>
-      <c r="D89">
+      <c r="D90" s="0">
         <v>23.485327562818718</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="E90" s="0">
+        <v>30.30835895701599</v>
+      </c>
+      <c r="F90" s="0">
+        <v>1.1470417905127313</v>
+      </c>
+    </row>
+    <row r="91" x14ac:dyDescent="0.2">
+      <c r="A91" s="0">
         <v>13</v>
       </c>
-      <c r="B90">
+      <c r="B91" s="0">
         <v>1</v>
       </c>
-      <c r="C90">
+      <c r="C91" s="0">
         <v>81</v>
       </c>
-      <c r="D90">
+      <c r="D91" s="0">
         <v>17.749672467207144</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="E91" s="0">
+        <v>69.609060486669279</v>
+      </c>
+      <c r="F91" s="0">
+        <v>1.5045041949614468</v>
+      </c>
+    </row>
+    <row r="92" x14ac:dyDescent="0.2">
+      <c r="A92" s="0">
         <v>13</v>
       </c>
-      <c r="B91">
+      <c r="B92" s="0">
         <v>2</v>
       </c>
-      <c r="C91">
+      <c r="C92" s="0">
         <v>111</v>
       </c>
-      <c r="D91">
+      <c r="D92" s="0">
         <v>16.133042000487375</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="E92" s="0">
+        <v>57.813955382719655</v>
+      </c>
+      <c r="F92" s="0">
+        <v>1.6771854629136185</v>
+      </c>
+    </row>
+    <row r="93" x14ac:dyDescent="0.2">
+      <c r="A93" s="0">
         <v>13</v>
       </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92">
+      <c r="B93" s="0">
+        <v>3</v>
+      </c>
+      <c r="C93" s="0">
         <v>112</v>
       </c>
-      <c r="D92">
+      <c r="D93" s="0">
         <v>15.344666847420655</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="E93" s="0">
+        <v>1.417775857323873</v>
+      </c>
+      <c r="F93" s="0">
+        <v>1.7112141052575272</v>
+      </c>
+    </row>
+    <row r="94" x14ac:dyDescent="0.2">
+      <c r="A94" s="0">
         <v>13</v>
       </c>
-      <c r="B93">
+      <c r="B94" s="0">
         <v>4</v>
       </c>
-      <c r="C93">
+      <c r="C94" s="0">
         <v>94</v>
       </c>
-      <c r="D93">
+      <c r="D94" s="0">
         <v>18.081520404022687</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="E94" s="0">
+        <v>12.146114450902784</v>
+      </c>
+      <c r="F94" s="0">
+        <v>1.4195996637658217</v>
+      </c>
+    </row>
+    <row r="95" x14ac:dyDescent="0.2">
+      <c r="A95" s="0">
         <v>13</v>
       </c>
-      <c r="B94">
+      <c r="B95" s="0">
         <v>5</v>
       </c>
-      <c r="C94">
+      <c r="C95" s="0">
         <v>81</v>
       </c>
-      <c r="D94">
+      <c r="D95" s="0">
         <v>19.8318763924824</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="E95" s="0">
+        <v>51.433387365531281</v>
+      </c>
+      <c r="F95" s="0">
+        <v>1.4574530246708612</v>
+      </c>
+    </row>
+    <row r="96" x14ac:dyDescent="0.2">
+      <c r="A96" s="0">
         <v>14</v>
       </c>
-      <c r="B95">
+      <c r="B96" s="0">
         <v>1</v>
       </c>
-      <c r="C95">
+      <c r="C96" s="0">
         <v>112</v>
       </c>
-      <c r="D95">
+      <c r="D96" s="0">
         <v>17.078392476185364</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="E96" s="0">
+        <v>32.62593967829676</v>
+      </c>
+      <c r="F96" s="0">
+        <v>1.7592460421767144</v>
+      </c>
+    </row>
+    <row r="97" x14ac:dyDescent="0.2">
+      <c r="A97" s="0">
         <v>14</v>
       </c>
-      <c r="B96">
+      <c r="B97" s="0">
         <v>2</v>
       </c>
-      <c r="C96">
+      <c r="C97" s="0">
         <v>131</v>
       </c>
-      <c r="D96">
+      <c r="D97" s="0">
         <v>14.915516078417564</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="E97" s="0">
+        <v>13.607937030413604</v>
+      </c>
+      <c r="F97" s="0">
+        <v>1.5106483371369901</v>
+      </c>
+    </row>
+    <row r="98" x14ac:dyDescent="0.2">
+      <c r="A98" s="0">
         <v>14</v>
       </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="C97">
+      <c r="B98" s="0">
+        <v>3</v>
+      </c>
+      <c r="C98" s="0">
         <v>112</v>
       </c>
-      <c r="D97">
+      <c r="D98" s="0">
         <v>16.720322698081549</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="E98" s="0">
+        <v>88.787474091764807</v>
+      </c>
+      <c r="F98" s="0">
+        <v>1.7093962485626353</v>
+      </c>
+    </row>
+    <row r="99" x14ac:dyDescent="0.2">
+      <c r="A99" s="0">
         <v>14</v>
       </c>
-      <c r="B98">
+      <c r="B99" s="0">
         <v>4</v>
       </c>
-      <c r="C98">
+      <c r="C99" s="0">
         <v>87</v>
       </c>
-      <c r="D98">
+      <c r="D99" s="0">
         <v>17.091549928280365</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="E99" s="0">
+        <v>9.3346641380367075</v>
+      </c>
+      <c r="F99" s="0">
+        <v>1.4704804274248888</v>
+      </c>
+    </row>
+    <row r="100" x14ac:dyDescent="0.2">
+      <c r="A100" s="0">
         <v>14</v>
       </c>
-      <c r="B99">
+      <c r="B100" s="0">
         <v>5</v>
       </c>
-      <c r="C99">
+      <c r="C100" s="0">
         <v>92</v>
       </c>
-      <c r="D99">
+      <c r="D100" s="0">
         <v>18.9852276203925</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="E100" s="0">
+        <v>41.959134304490192</v>
+      </c>
+      <c r="F100" s="0">
+        <v>1.4788478828410223</v>
+      </c>
+    </row>
+    <row r="101" x14ac:dyDescent="0.2">
+      <c r="A101" s="0">
         <v>15</v>
       </c>
-      <c r="B100">
+      <c r="B101" s="0">
         <v>1</v>
       </c>
-      <c r="C100">
+      <c r="C101" s="0">
         <v>70</v>
       </c>
-      <c r="D100">
+      <c r="D101" s="0">
         <v>22.724056225743478</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="E101" s="0">
+        <v>3.7948707696917845</v>
+      </c>
+      <c r="F101" s="0">
+        <v>1.3561670913136581</v>
+      </c>
+    </row>
+    <row r="102" x14ac:dyDescent="0.2">
+      <c r="A102" s="0">
         <v>15</v>
       </c>
-      <c r="B101">
+      <c r="B102" s="0">
         <v>2</v>
       </c>
-      <c r="C101">
+      <c r="C102" s="0">
         <v>71</v>
       </c>
-      <c r="D101">
+      <c r="D102" s="0">
         <v>20.652280163652833</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="E102" s="0">
+        <v>7.5145418371147663</v>
+      </c>
+      <c r="F102" s="0">
+        <v>1.4131708776011422</v>
+      </c>
+    </row>
+    <row r="103" x14ac:dyDescent="0.2">
+      <c r="A103" s="0">
         <v>15</v>
       </c>
-      <c r="B102">
-        <v>3</v>
-      </c>
-      <c r="C102">
+      <c r="B103" s="0">
+        <v>3</v>
+      </c>
+      <c r="C103" s="0">
         <v>91</v>
       </c>
-      <c r="D102">
+      <c r="D103" s="0">
         <v>17.157083715173489</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="E103" s="0">
+        <v>36.577781529502417</v>
+      </c>
+      <c r="F103" s="0">
+        <v>1.4500889596989548</v>
+      </c>
+    </row>
+    <row r="104" x14ac:dyDescent="0.2">
+      <c r="A104" s="0">
         <v>15</v>
       </c>
-      <c r="B103">
+      <c r="B104" s="0">
         <v>4</v>
       </c>
-      <c r="C103">
+      <c r="C104" s="0">
         <v>95</v>
       </c>
-      <c r="D103">
+      <c r="D104" s="0">
         <v>16.193235155478373</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="E104" s="0">
+        <v>61.584896417443112</v>
+      </c>
+      <c r="F104" s="0">
+        <v>1.4074978281786152</v>
+      </c>
+    </row>
+    <row r="105" x14ac:dyDescent="0.2">
+      <c r="A105" s="0">
         <v>15</v>
       </c>
-      <c r="B104">
+      <c r="B105" s="0">
         <v>5</v>
       </c>
-      <c r="C104">
+      <c r="C105" s="0">
         <v>77</v>
       </c>
-      <c r="D104">
+      <c r="D105" s="0">
         <v>20.404883156452883</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="E105" s="0">
+        <v>79.894591792142549</v>
+      </c>
+      <c r="F105" s="0">
+        <v>1.3808042934574019</v>
+      </c>
+    </row>
+    <row r="106" x14ac:dyDescent="0.2">
+      <c r="A106" s="0">
         <v>16</v>
       </c>
-      <c r="B105">
+      <c r="B106" s="0">
         <v>1</v>
       </c>
-      <c r="C105">
+      <c r="C106" s="0">
         <v>74</v>
       </c>
-      <c r="D105">
+      <c r="D106" s="0">
         <v>19.770274016735005</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="E106" s="0">
+        <v>40.015262841687971</v>
+      </c>
+      <c r="F106" s="0">
+        <v>1.7099517279621268</v>
+      </c>
+    </row>
+    <row r="107" x14ac:dyDescent="0.2">
+      <c r="A107" s="0">
         <v>16</v>
       </c>
-      <c r="B106">
+      <c r="B107" s="0">
         <v>2</v>
       </c>
-      <c r="C106">
+      <c r="C107" s="0">
         <v>99</v>
       </c>
-      <c r="D106">
+      <c r="D107" s="0">
         <v>17.08700650115922</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="E107" s="0">
+        <v>60.506858957787891</v>
+      </c>
+      <c r="F107" s="0">
+        <v>1.6333981171068634</v>
+      </c>
+    </row>
+    <row r="108" x14ac:dyDescent="0.2">
+      <c r="A108" s="0">
         <v>16</v>
       </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-      <c r="C107">
+      <c r="B108" s="0">
+        <v>3</v>
+      </c>
+      <c r="C108" s="0">
         <v>80</v>
       </c>
-      <c r="D107">
+      <c r="D108" s="0">
         <v>16.066262763821417</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="E108" s="0">
+        <v>13.1829449910654</v>
+      </c>
+      <c r="F108" s="0">
+        <v>1.563724098045189</v>
+      </c>
+    </row>
+    <row r="109" x14ac:dyDescent="0.2">
+      <c r="A109" s="0">
         <v>16</v>
       </c>
-      <c r="B108">
+      <c r="B109" s="0">
         <v>4</v>
       </c>
-      <c r="C108">
+      <c r="C109" s="0">
         <v>79</v>
       </c>
-      <c r="D108">
+      <c r="D109" s="0">
         <v>18.429472303696748</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="E109" s="0">
+        <v>50.229935450118376</v>
+      </c>
+      <c r="F109" s="0">
+        <v>1.6289462799051828</v>
+      </c>
+    </row>
+    <row r="110" x14ac:dyDescent="0.2">
+      <c r="A110" s="0">
         <v>16</v>
       </c>
-      <c r="B109">
+      <c r="B110" s="0">
         <v>5</v>
       </c>
-      <c r="C109">
+      <c r="C110" s="0">
         <v>121</v>
       </c>
-      <c r="D109">
+      <c r="D110" s="0">
         <v>15.255782622854561</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="E110" s="0">
+        <v>5.3281381793349931</v>
+      </c>
+      <c r="F110" s="0">
+        <v>2.0133624780867669</v>
+      </c>
+    </row>
+    <row r="111" x14ac:dyDescent="0.2">
+      <c r="A111" s="0">
         <v>17</v>
       </c>
-      <c r="B110">
+      <c r="B111" s="0">
         <v>1</v>
       </c>
-      <c r="C110">
+      <c r="C111" s="0">
         <v>124</v>
       </c>
-      <c r="D110">
+      <c r="D111" s="0">
         <v>14.913065335571883</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="E111" s="0">
+        <v>37.706309834244948</v>
+      </c>
+      <c r="F111" s="0">
+        <v>1.5902585565809007</v>
+      </c>
+    </row>
+    <row r="112" x14ac:dyDescent="0.2">
+      <c r="A112" s="0">
         <v>17</v>
       </c>
-      <c r="B111">
+      <c r="B112" s="0">
         <v>2</v>
       </c>
-      <c r="C111">
+      <c r="C112" s="0">
         <v>101</v>
       </c>
-      <c r="D111">
+      <c r="D112" s="0">
         <v>17.629770931261248</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="E112" s="0">
+        <v>67.828104338760539</v>
+      </c>
+      <c r="F112" s="0">
+        <v>1.4617751434138708</v>
+      </c>
+    </row>
+    <row r="113" x14ac:dyDescent="0.2">
+      <c r="A113" s="0">
         <v>17</v>
       </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-      <c r="C112">
+      <c r="B113" s="0">
+        <v>3</v>
+      </c>
+      <c r="C113" s="0">
         <v>87</v>
       </c>
-      <c r="D112">
+      <c r="D113" s="0">
         <v>19.476079437307177</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="E113" s="0">
+        <v>5.0692667624360617</v>
+      </c>
+      <c r="F113" s="0">
+        <v>1.5784427800050722</v>
+      </c>
+    </row>
+    <row r="114" x14ac:dyDescent="0.2">
+      <c r="A114" s="0">
         <v>17</v>
       </c>
-      <c r="B113">
+      <c r="B114" s="0">
         <v>4</v>
       </c>
-      <c r="C113">
+      <c r="C114" s="0">
         <v>99</v>
       </c>
-      <c r="D113">
+      <c r="D114" s="0">
         <v>16.789656557036992</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="E114" s="0">
+        <v>47.078414838494453</v>
+      </c>
+      <c r="F114" s="0">
+        <v>1.352863900592578</v>
+      </c>
+    </row>
+    <row r="115" x14ac:dyDescent="0.2">
+      <c r="A115" s="0">
         <v>17</v>
       </c>
-      <c r="B114">
+      <c r="B115" s="0">
         <v>5</v>
       </c>
-      <c r="C114">
+      <c r="C115" s="0">
         <v>102</v>
       </c>
-      <c r="D114">
+      <c r="D115" s="0">
         <v>17.249604105968135</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="E115" s="0">
+        <v>83.434864612064203</v>
+      </c>
+      <c r="F115" s="0">
+        <v>1.3132486829486092</v>
+      </c>
+    </row>
+    <row r="116" x14ac:dyDescent="0.2">
+      <c r="A116" s="0">
         <v>18</v>
       </c>
-      <c r="B115">
+      <c r="B116" s="0">
         <v>1</v>
       </c>
-      <c r="C115">
+      <c r="C116" s="0">
         <v>85</v>
       </c>
-      <c r="D115">
+      <c r="D116" s="0">
         <v>17.639768809134885</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="E116" s="0">
+        <v>69.29550557056676</v>
+      </c>
+      <c r="F116" s="0">
+        <v>1.6830729748074809</v>
+      </c>
+    </row>
+    <row r="117" x14ac:dyDescent="0.2">
+      <c r="A117" s="0">
         <v>18</v>
       </c>
-      <c r="B116">
+      <c r="B117" s="0">
         <v>2</v>
       </c>
-      <c r="C116">
+      <c r="C117" s="0">
         <v>95</v>
       </c>
-      <c r="D116">
+      <c r="D117" s="0">
         <v>17.524022895403846</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="E117" s="0">
+        <v>32.796294245339425</v>
+      </c>
+      <c r="F117" s="0">
+        <v>1.7039074598362669</v>
+      </c>
+    </row>
+    <row r="118" x14ac:dyDescent="0.2">
+      <c r="A118" s="0">
         <v>18</v>
       </c>
-      <c r="B117">
-        <v>3</v>
-      </c>
-      <c r="C117">
+      <c r="B118" s="0">
+        <v>3</v>
+      </c>
+      <c r="C118" s="0">
         <v>105</v>
       </c>
-      <c r="D117">
+      <c r="D118" s="0">
         <v>16.294871342321091</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="E118" s="0">
+        <v>46.133928977591211</v>
+      </c>
+      <c r="F118" s="0">
+        <v>1.8378268670674516</v>
+      </c>
+    </row>
+    <row r="119" x14ac:dyDescent="0.2">
+      <c r="A119" s="0">
         <v>18</v>
       </c>
-      <c r="B118">
+      <c r="B119" s="0">
         <v>4</v>
       </c>
-      <c r="C118">
+      <c r="C119" s="0">
         <v>94</v>
       </c>
-      <c r="D118">
+      <c r="D119" s="0">
         <v>15.994363529696916</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="E119" s="0">
+        <v>48.209305696927352</v>
+      </c>
+      <c r="F119" s="0">
+        <v>1.9422463717101539</v>
+      </c>
+    </row>
+    <row r="120" x14ac:dyDescent="0.2">
+      <c r="A120" s="0">
         <v>18</v>
       </c>
-      <c r="B119">
+      <c r="B120" s="0">
         <v>5</v>
       </c>
-      <c r="C119">
+      <c r="C120" s="0">
         <v>104</v>
       </c>
-      <c r="D119">
+      <c r="D120" s="0">
         <v>14.578911110225224</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="E120" s="0">
+        <v>101.86390531658131</v>
+      </c>
+      <c r="F120" s="0">
+        <v>1.5447683723717294</v>
+      </c>
+    </row>
+    <row r="121" x14ac:dyDescent="0.2">
+      <c r="A121" s="0">
         <v>19</v>
       </c>
-      <c r="B120">
+      <c r="B121" s="0">
         <v>1</v>
       </c>
-      <c r="C120">
+      <c r="C121" s="0">
         <v>108</v>
       </c>
-      <c r="D120">
+      <c r="D121" s="0">
         <v>13.001811260746345</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="E121" s="0">
+        <v>82.949265923833167</v>
+      </c>
+      <c r="F121" s="0">
+        <v>1.7604190369599813</v>
+      </c>
+    </row>
+    <row r="122" x14ac:dyDescent="0.2">
+      <c r="A122" s="0">
         <v>19</v>
       </c>
-      <c r="B121">
+      <c r="B122" s="0">
         <v>2</v>
       </c>
-      <c r="C121">
+      <c r="C122" s="0">
         <v>107</v>
       </c>
-      <c r="D121">
+      <c r="D122" s="0">
         <v>15.633214053154797</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="E122" s="0">
+        <v>54.857794905042041</v>
+      </c>
+      <c r="F122" s="0">
+        <v>1.5660904064209029</v>
+      </c>
+    </row>
+    <row r="123" x14ac:dyDescent="0.2">
+      <c r="A123" s="0">
         <v>19</v>
       </c>
-      <c r="B122">
-        <v>3</v>
-      </c>
-      <c r="C122">
+      <c r="B123" s="0">
+        <v>3</v>
+      </c>
+      <c r="C123" s="0">
         <v>98</v>
       </c>
-      <c r="D122">
+      <c r="D123" s="0">
         <v>17.38136885276186</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="E123" s="0">
+        <v>41.623930902756761</v>
+      </c>
+      <c r="F123" s="0">
+        <v>1.4927665838619251</v>
+      </c>
+    </row>
+    <row r="124" x14ac:dyDescent="0.2">
+      <c r="A124" s="0">
         <v>19</v>
       </c>
-      <c r="B123">
+      <c r="B124" s="0">
         <v>4</v>
       </c>
-      <c r="C123">
+      <c r="C124" s="0">
         <v>94</v>
       </c>
-      <c r="D123">
+      <c r="D124" s="0">
         <v>17.038441614965706</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="E124" s="0">
+        <v>20.841424009997766</v>
+      </c>
+      <c r="F124" s="0">
+        <v>1.5030877512089951</v>
+      </c>
+    </row>
+    <row r="125" x14ac:dyDescent="0.2">
+      <c r="A125" s="0">
         <v>19</v>
       </c>
-      <c r="B124">
+      <c r="B125" s="0">
         <v>5</v>
       </c>
-      <c r="C124">
+      <c r="C125" s="0">
         <v>103</v>
       </c>
-      <c r="D124">
+      <c r="D125" s="0">
         <v>16.630963521790417</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="E125" s="0">
+        <v>2.039081668210609</v>
+      </c>
+      <c r="F125" s="0">
+        <v>2.1067586499722175</v>
+      </c>
+    </row>
+    <row r="126" x14ac:dyDescent="0.2">
+      <c r="A126" s="0">
         <v>20</v>
       </c>
-      <c r="B125">
+      <c r="B126" s="0">
         <v>1</v>
       </c>
-      <c r="C125">
+      <c r="C126" s="0">
         <v>92</v>
       </c>
-      <c r="D125">
+      <c r="D126" s="0">
         <v>17.46791203929466</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="E126" s="0">
+        <v>89.929463275238533</v>
+      </c>
+      <c r="F126" s="0">
+        <v>1.234619046169166</v>
+      </c>
+    </row>
+    <row r="127" x14ac:dyDescent="0.2">
+      <c r="A127" s="0">
         <v>20</v>
       </c>
-      <c r="B126">
+      <c r="B127" s="0">
         <v>2</v>
       </c>
-      <c r="C126">
+      <c r="C127" s="0">
         <v>79</v>
       </c>
-      <c r="D126">
+      <c r="D127" s="0">
         <v>21.769114583141153</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="E127" s="0">
+        <v>72.725063852040364</v>
+      </c>
+      <c r="F127" s="0">
+        <v>1.4112706263893218</v>
+      </c>
+    </row>
+    <row r="128" x14ac:dyDescent="0.2">
+      <c r="A128" s="0">
         <v>20</v>
       </c>
-      <c r="B127">
-        <v>3</v>
-      </c>
-      <c r="C127">
+      <c r="B128" s="0">
+        <v>3</v>
+      </c>
+      <c r="C128" s="0">
         <v>88</v>
       </c>
-      <c r="D127">
+      <c r="D128" s="0">
         <v>21.015286821452587</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="E128" s="0">
+        <v>36.409521936879194</v>
+      </c>
+      <c r="F128" s="0">
+        <v>1.4724745517573097</v>
+      </c>
+    </row>
+    <row r="129" x14ac:dyDescent="0.2">
+      <c r="A129" s="0">
         <v>20</v>
       </c>
-      <c r="B128">
+      <c r="B129" s="0">
         <v>4</v>
       </c>
-      <c r="C128">
+      <c r="C129" s="0">
         <v>75</v>
       </c>
-      <c r="D128">
+      <c r="D129" s="0">
         <v>19.886361239387298</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="E129" s="0">
+        <v>51.954597734890818</v>
+      </c>
+      <c r="F129" s="0">
+        <v>1.1749315192776784</v>
+      </c>
+    </row>
+    <row r="130" x14ac:dyDescent="0.2">
+      <c r="A130" s="0">
         <v>20</v>
       </c>
-      <c r="B129">
+      <c r="B130" s="0">
         <v>5</v>
       </c>
-      <c r="C129">
+      <c r="C130" s="0">
         <v>61</v>
       </c>
-      <c r="D129">
+      <c r="D130" s="0">
         <v>23.776388235263049</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="E130" s="0">
+        <v>2.1920167188612929</v>
+      </c>
+      <c r="F130" s="0">
+        <v>1.2753029409636247</v>
+      </c>
+    </row>
+    <row r="131" x14ac:dyDescent="0.2">
+      <c r="A131" s="0">
         <v>21</v>
       </c>
-      <c r="B130">
+      <c r="B131" s="0">
         <v>1</v>
       </c>
-      <c r="C130">
+      <c r="C131" s="0">
         <v>109</v>
       </c>
-      <c r="D130">
+      <c r="D131" s="0">
         <v>15.568031993196666</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="E131" s="0">
+        <v>5.7428733191597177</v>
+      </c>
+      <c r="F131" s="0">
+        <v>1.7338319038269252</v>
+      </c>
+    </row>
+    <row r="132" x14ac:dyDescent="0.2">
+      <c r="A132" s="0">
         <v>21</v>
       </c>
-      <c r="B131">
+      <c r="B132" s="0">
         <v>2</v>
       </c>
-      <c r="C131">
+      <c r="C132" s="0">
         <v>77</v>
       </c>
-      <c r="D131">
+      <c r="D132" s="0">
         <v>19.34634985759379</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="E132" s="0">
+        <v>56.008230644927814</v>
+      </c>
+      <c r="F132" s="0">
+        <v>1.4457387702369524</v>
+      </c>
+    </row>
+    <row r="133" x14ac:dyDescent="0.2">
+      <c r="A133" s="0">
         <v>21</v>
       </c>
-      <c r="B132">
-        <v>3</v>
-      </c>
-      <c r="C132">
+      <c r="B133" s="0">
+        <v>3</v>
+      </c>
+      <c r="C133" s="0">
         <v>81</v>
       </c>
-      <c r="D132">
+      <c r="D133" s="0">
         <v>18.972383476752622</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="E133" s="0">
+        <v>2.4373704906443217</v>
+      </c>
+      <c r="F133" s="0">
+        <v>1.5185055649076635</v>
+      </c>
+    </row>
+    <row r="134" x14ac:dyDescent="0.2">
+      <c r="A134" s="0">
         <v>21</v>
       </c>
-      <c r="B133">
+      <c r="B134" s="0">
         <v>4</v>
       </c>
-      <c r="C133">
+      <c r="C134" s="0">
         <v>79</v>
       </c>
-      <c r="D133">
+      <c r="D134" s="0">
         <v>18.686983269642457</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="E134" s="0">
+        <v>38.14032564749688</v>
+      </c>
+      <c r="F134" s="0">
+        <v>1.4347646047202294</v>
+      </c>
+    </row>
+    <row r="135" x14ac:dyDescent="0.2">
+      <c r="A135" s="0">
         <v>21</v>
       </c>
-      <c r="B134">
+      <c r="B135" s="0">
         <v>5</v>
       </c>
-      <c r="C134">
+      <c r="C135" s="0">
         <v>98</v>
       </c>
-      <c r="D134">
+      <c r="D135" s="0">
         <v>17.481789448048588</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="E135" s="0">
+        <v>19.628627108352475</v>
+      </c>
+      <c r="F135" s="0">
+        <v>1.6339519336120638</v>
+      </c>
+    </row>
+    <row r="136" x14ac:dyDescent="0.2">
+      <c r="A136" s="0">
         <v>22</v>
       </c>
-      <c r="B135">
+      <c r="B136" s="0">
         <v>1</v>
       </c>
-      <c r="C135">
+      <c r="C136" s="0">
         <v>115</v>
       </c>
-      <c r="D135">
+      <c r="D136" s="0">
         <v>16.465881473196543</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="E136" s="0">
+        <v>8.9905692173684919</v>
+      </c>
+      <c r="F136" s="0">
+        <v>1.5499143140509632</v>
+      </c>
+    </row>
+    <row r="137" x14ac:dyDescent="0.2">
+      <c r="A137" s="0">
         <v>22</v>
       </c>
-      <c r="B136">
+      <c r="B137" s="0">
         <v>2</v>
       </c>
-      <c r="C136">
+      <c r="C137" s="0">
         <v>95</v>
       </c>
-      <c r="D136">
+      <c r="D137" s="0">
         <v>19.563377808133708</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="E137" s="0">
+        <v>5.904226360789016</v>
+      </c>
+      <c r="F137" s="0">
+        <v>1.6171887191557501</v>
+      </c>
+    </row>
+    <row r="138" x14ac:dyDescent="0.2">
+      <c r="A138" s="0">
         <v>22</v>
       </c>
-      <c r="B137">
-        <v>3</v>
-      </c>
-      <c r="C137">
+      <c r="B138" s="0">
+        <v>3</v>
+      </c>
+      <c r="C138" s="0">
         <v>109</v>
       </c>
-      <c r="D137">
+      <c r="D138" s="0">
         <v>16.943412541241713</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="E138" s="0">
+        <v>26.92611138111474</v>
+      </c>
+      <c r="F138" s="0">
+        <v>1.6996884144755087</v>
+      </c>
+    </row>
+    <row r="139" x14ac:dyDescent="0.2">
+      <c r="A139" s="0">
         <v>22</v>
       </c>
-      <c r="B138">
+      <c r="B139" s="0">
         <v>4</v>
       </c>
-      <c r="C138">
+      <c r="C139" s="0">
         <v>94</v>
       </c>
-      <c r="D138">
+      <c r="D139" s="0">
         <v>19.368643230199311</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="E139" s="0">
+        <v>28.860234986379197</v>
+      </c>
+      <c r="F139" s="0">
+        <v>1.4457476515358483</v>
+      </c>
+    </row>
+    <row r="140" x14ac:dyDescent="0.2">
+      <c r="A140" s="0">
         <v>22</v>
       </c>
-      <c r="B139">
+      <c r="B140" s="0">
         <v>5</v>
       </c>
-      <c r="C139">
+      <c r="C140" s="0">
         <v>96</v>
       </c>
-      <c r="D139">
+      <c r="D140" s="0">
         <v>18.583977886278554</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="E140" s="0">
+        <v>30.708079620112347</v>
+      </c>
+      <c r="F140" s="0">
+        <v>1.3902536084524044</v>
+      </c>
+    </row>
+    <row r="141" x14ac:dyDescent="0.2">
+      <c r="A141" s="0">
         <v>23</v>
       </c>
-      <c r="B140">
+      <c r="B141" s="0">
         <v>1</v>
       </c>
-      <c r="C140">
+      <c r="C141" s="0">
         <v>78</v>
       </c>
-      <c r="D140">
+      <c r="D141" s="0">
         <v>21.228986835365831</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="E141" s="0">
+        <v>2.8258242358428989</v>
+      </c>
+      <c r="F141" s="0">
+        <v>1.4783508870865272</v>
+      </c>
+    </row>
+    <row r="142" x14ac:dyDescent="0.2">
+      <c r="A142" s="0">
         <v>23</v>
       </c>
-      <c r="B141">
+      <c r="B142" s="0">
         <v>2</v>
       </c>
-      <c r="C141">
+      <c r="C142" s="0">
         <v>89</v>
       </c>
-      <c r="D141">
+      <c r="D142" s="0">
         <v>18.708808640057164</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="E142" s="0">
+        <v>37.582784630984548</v>
+      </c>
+      <c r="F142" s="0">
+        <v>1.6796404284770379</v>
+      </c>
+    </row>
+    <row r="143" x14ac:dyDescent="0.2">
+      <c r="A143" s="0">
         <v>23</v>
       </c>
-      <c r="B142">
-        <v>3</v>
-      </c>
-      <c r="C142">
+      <c r="B143" s="0">
+        <v>3</v>
+      </c>
+      <c r="C143" s="0">
         <v>65</v>
       </c>
-      <c r="D142">
+      <c r="D143" s="0">
         <v>23.247017197743439</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="E143" s="0">
+        <v>5.325553586323668</v>
+      </c>
+      <c r="F143" s="0">
+        <v>1.6383346126073703</v>
+      </c>
+    </row>
+    <row r="144" x14ac:dyDescent="0.2">
+      <c r="A144" s="0">
         <v>23</v>
       </c>
-      <c r="B143">
+      <c r="B144" s="0">
         <v>4</v>
       </c>
-      <c r="C143">
+      <c r="C144" s="0">
         <v>65</v>
       </c>
-      <c r="D143">
+      <c r="D144" s="0">
         <v>19.386498548246216</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="E144" s="0">
+        <v>29.819845298247284</v>
+      </c>
+      <c r="F144" s="0">
+        <v>1.4940927731328688</v>
+      </c>
+    </row>
+    <row r="145" x14ac:dyDescent="0.2">
+      <c r="A145" s="0">
         <v>23</v>
       </c>
-      <c r="B144">
+      <c r="B145" s="0">
         <v>5</v>
       </c>
-      <c r="C144">
+      <c r="C145" s="0">
         <v>59</v>
       </c>
-      <c r="D144">
+      <c r="D145" s="0">
         <v>23.628293590933428</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="E145" s="0">
+        <v>31.506618396089607</v>
+      </c>
+      <c r="F145" s="0">
+        <v>1.6479004598133671</v>
+      </c>
+    </row>
+    <row r="146" x14ac:dyDescent="0.2">
+      <c r="A146" s="0">
         <v>24</v>
       </c>
-      <c r="B145">
+      <c r="B146" s="0">
         <v>1</v>
       </c>
-      <c r="C145">
+      <c r="C146" s="0">
         <v>96</v>
       </c>
-      <c r="D145">
+      <c r="D146" s="0">
         <v>16.497665521690951</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="E146" s="0">
+        <v>3.9868336704994083</v>
+      </c>
+      <c r="F146" s="0">
+        <v>1.6337728191745235</v>
+      </c>
+    </row>
+    <row r="147" x14ac:dyDescent="0.2">
+      <c r="A147" s="0">
         <v>24</v>
       </c>
-      <c r="B146">
+      <c r="B147" s="0">
         <v>2</v>
       </c>
-      <c r="C146">
+      <c r="C147" s="0">
         <v>61</v>
       </c>
-      <c r="D146">
+      <c r="D147" s="0">
         <v>22.207698722145459</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="E147" s="0">
+        <v>82.672118093182661</v>
+      </c>
+      <c r="F147" s="0">
+        <v>1.411901389970468</v>
+      </c>
+    </row>
+    <row r="148" x14ac:dyDescent="0.2">
+      <c r="A148" s="0">
         <v>24</v>
       </c>
-      <c r="B147">
-        <v>3</v>
-      </c>
-      <c r="C147">
+      <c r="B148" s="0">
+        <v>3</v>
+      </c>
+      <c r="C148" s="0">
         <v>55</v>
       </c>
-      <c r="D147">
+      <c r="D148" s="0">
         <v>22.079430520802468</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="E148" s="0">
+        <v>137.73398153239117</v>
+      </c>
+      <c r="F148" s="0">
+        <v>1.5803494879385263</v>
+      </c>
+    </row>
+    <row r="149" x14ac:dyDescent="0.2">
+      <c r="A149" s="0">
         <v>24</v>
       </c>
-      <c r="B148">
+      <c r="B149" s="0">
         <v>4</v>
       </c>
-      <c r="C148">
+      <c r="C149" s="0">
         <v>78</v>
       </c>
-      <c r="D148">
+      <c r="D149" s="0">
         <v>17.999867526879385</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="E149" s="0">
+        <v>84.871788918015795</v>
+      </c>
+      <c r="F149" s="0">
+        <v>1.6539482620993406</v>
+      </c>
+    </row>
+    <row r="150" x14ac:dyDescent="0.2">
+      <c r="A150" s="0">
         <v>24</v>
       </c>
-      <c r="B149">
+      <c r="B150" s="0">
         <v>5</v>
       </c>
-      <c r="C149">
+      <c r="C150" s="0">
         <v>93</v>
       </c>
-      <c r="D149">
+      <c r="D150" s="0">
         <v>15.140186177184704</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="E150" s="0">
+        <v>59.283524501171918</v>
+      </c>
+      <c r="F150" s="0">
+        <v>2.0436025224447749</v>
+      </c>
+    </row>
+    <row r="151" x14ac:dyDescent="0.2">
+      <c r="A151" s="0">
         <v>25</v>
       </c>
-      <c r="B150">
+      <c r="B151" s="0">
         <v>1</v>
       </c>
-      <c r="C150">
+      <c r="C151" s="0">
         <v>52</v>
       </c>
-      <c r="D150">
+      <c r="D151" s="0">
         <v>25.759271276960906</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="E151" s="0">
+        <v>8.6096138707868537</v>
+      </c>
+      <c r="F151" s="0">
+        <v>1.5257935956009547</v>
+      </c>
+    </row>
+    <row r="152" x14ac:dyDescent="0.2">
+      <c r="A152" s="0">
         <v>25</v>
       </c>
-      <c r="B151">
+      <c r="B152" s="0">
         <v>2</v>
       </c>
-      <c r="C151">
+      <c r="C152" s="0">
         <v>48</v>
       </c>
-      <c r="D151">
+      <c r="D152" s="0">
         <v>29.582624129387231</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="E152" s="0">
+        <v>28.87418528018642</v>
+      </c>
+      <c r="F152" s="0">
+        <v>1.3851622977723799</v>
+      </c>
+    </row>
+    <row r="153" x14ac:dyDescent="0.2">
+      <c r="A153" s="0">
         <v>25</v>
       </c>
-      <c r="B152">
-        <v>3</v>
-      </c>
-      <c r="C152">
+      <c r="B153" s="0">
+        <v>3</v>
+      </c>
+      <c r="C153" s="0">
         <v>47</v>
       </c>
-      <c r="D152">
+      <c r="D153" s="0">
         <v>24.810398978580878</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="E153" s="0">
+        <v>50.931648551729772</v>
+      </c>
+      <c r="F153" s="0">
+        <v>1.2976129630084332</v>
+      </c>
+    </row>
+    <row r="154" x14ac:dyDescent="0.2">
+      <c r="A154" s="0">
         <v>25</v>
       </c>
-      <c r="B153">
+      <c r="B154" s="0">
         <v>4</v>
       </c>
-      <c r="C153">
+      <c r="C154" s="0">
         <v>53</v>
       </c>
-      <c r="D153">
+      <c r="D154" s="0">
         <v>21.273325642889482</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="E154" s="0">
+        <v>2.1492028659741895</v>
+      </c>
+      <c r="F154" s="0">
+        <v>1.3112460369369667</v>
+      </c>
+    </row>
+    <row r="155" x14ac:dyDescent="0.2">
+      <c r="A155" s="0">
         <v>25</v>
       </c>
-      <c r="B154">
+      <c r="B155" s="0">
         <v>5</v>
       </c>
-      <c r="C154">
+      <c r="C155" s="0">
         <v>44</v>
       </c>
-      <c r="D154">
+      <c r="D155" s="0">
         <v>30.660994231329731</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="E155" s="0">
+        <v>58.858636907894443</v>
+      </c>
+      <c r="F155" s="0">
+        <v>1.3825643761874011</v>
+      </c>
+    </row>
+    <row r="156" x14ac:dyDescent="0.2">
+      <c r="A156" s="0">
         <v>26</v>
       </c>
-      <c r="B155">
+      <c r="B156" s="0">
         <v>1</v>
       </c>
-      <c r="C155">
+      <c r="C156" s="0">
         <v>54</v>
       </c>
-      <c r="D155">
+      <c r="D156" s="0">
         <v>24.442111261315791</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="E156" s="0">
+        <v>1.3275049024653089</v>
+      </c>
+      <c r="F156" s="0">
+        <v>1.0581118784811256</v>
+      </c>
+    </row>
+    <row r="157" x14ac:dyDescent="0.2">
+      <c r="A157" s="0">
         <v>26</v>
       </c>
-      <c r="B156">
+      <c r="B157" s="0">
         <v>2</v>
       </c>
-      <c r="C156">
+      <c r="C157" s="0">
         <v>79</v>
       </c>
-      <c r="D156">
+      <c r="D157" s="0">
         <v>19.861065359586469</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="E157" s="0">
+        <v>99.437713170248784</v>
+      </c>
+      <c r="F157" s="0">
+        <v>1.1805620625179349</v>
+      </c>
+    </row>
+    <row r="158" x14ac:dyDescent="0.2">
+      <c r="A158" s="0">
         <v>26</v>
       </c>
-      <c r="B157">
-        <v>3</v>
-      </c>
-      <c r="C157">
+      <c r="B158" s="0">
+        <v>3</v>
+      </c>
+      <c r="C158" s="0">
         <v>72</v>
       </c>
-      <c r="D157">
+      <c r="D158" s="0">
         <v>19.498733326422009</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="E158" s="0">
+        <v>16.483510692004874</v>
+      </c>
+      <c r="F158" s="0">
+        <v>1.2043337846664912</v>
+      </c>
+    </row>
+    <row r="159" x14ac:dyDescent="0.2">
+      <c r="A159" s="0">
         <v>26</v>
       </c>
-      <c r="B158">
+      <c r="B159" s="0">
         <v>4</v>
       </c>
-      <c r="C158">
+      <c r="C159" s="0">
         <v>65</v>
       </c>
-      <c r="D158">
+      <c r="D159" s="0">
         <v>22.622596096703045</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="E159" s="0">
+        <v>29.958149052643783</v>
+      </c>
+      <c r="F159" s="0">
+        <v>1.2786795182525186</v>
+      </c>
+    </row>
+    <row r="160" x14ac:dyDescent="0.2">
+      <c r="A160" s="0">
         <v>26</v>
       </c>
-      <c r="B159">
+      <c r="B160" s="0">
         <v>5</v>
       </c>
-      <c r="C159">
+      <c r="C160" s="0">
         <v>68</v>
       </c>
-      <c r="D159">
+      <c r="D160" s="0">
         <v>18.512645964050403</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="E160" s="0">
+        <v>69.371509199059972</v>
+      </c>
+      <c r="F160" s="0">
+        <v>1.1610116305970033</v>
+      </c>
+    </row>
+    <row r="161" x14ac:dyDescent="0.2">
+      <c r="A161" s="0">
         <v>27</v>
       </c>
-      <c r="B160">
+      <c r="B161" s="0">
         <v>1</v>
       </c>
-      <c r="C160">
+      <c r="C161" s="0">
         <v>81</v>
       </c>
-      <c r="D160">
+      <c r="D161" s="0">
         <v>17.135970852565237</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="E161" s="0">
+        <v>5.9778039185097089</v>
+      </c>
+      <c r="F161" s="0">
+        <v>1.7116985209663982</v>
+      </c>
+    </row>
+    <row r="162" x14ac:dyDescent="0.2">
+      <c r="A162" s="0">
         <v>27</v>
       </c>
-      <c r="B161">
+      <c r="B162" s="0">
         <v>2</v>
       </c>
-      <c r="C161">
+      <c r="C162" s="0">
         <v>72</v>
       </c>
-      <c r="D161">
+      <c r="D162" s="0">
         <v>17.872010283677831</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="E162" s="0">
+        <v>16.001631706436427</v>
+      </c>
+      <c r="F162" s="0">
+        <v>1.6850643142558679</v>
+      </c>
+    </row>
+    <row r="163" x14ac:dyDescent="0.2">
+      <c r="A163" s="0">
         <v>27</v>
       </c>
-      <c r="B162">
-        <v>3</v>
-      </c>
-      <c r="C162">
+      <c r="B163" s="0">
+        <v>3</v>
+      </c>
+      <c r="C163" s="0">
         <v>68</v>
       </c>
-      <c r="D162">
+      <c r="D163" s="0">
         <v>18.595890218189986</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="E163" s="0">
+        <v>29.432622272419003</v>
+      </c>
+      <c r="F163" s="0">
+        <v>1.7044073420901777</v>
+      </c>
+    </row>
+    <row r="164" x14ac:dyDescent="0.2">
+      <c r="A164" s="0">
         <v>27</v>
       </c>
-      <c r="B163">
+      <c r="B164" s="0">
         <v>4</v>
       </c>
-      <c r="C163">
+      <c r="C164" s="0">
         <v>71</v>
       </c>
-      <c r="D163">
+      <c r="D164" s="0">
         <v>20.157904200227669</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="E164" s="0">
+        <v>77.116959596880065</v>
+      </c>
+      <c r="F164" s="0">
+        <v>1.9194885171420484</v>
+      </c>
+    </row>
+    <row r="165" x14ac:dyDescent="0.2">
+      <c r="A165" s="0">
         <v>27</v>
       </c>
-      <c r="B164">
+      <c r="B165" s="0">
         <v>5</v>
       </c>
-      <c r="C164">
+      <c r="C165" s="0">
         <v>97</v>
       </c>
-      <c r="D164">
+      <c r="D165" s="0">
         <v>16.044452377788598</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="E165" s="0">
+        <v>67.945224002650363</v>
+      </c>
+      <c r="F165" s="0">
+        <v>2.0058635162060363</v>
+      </c>
+    </row>
+    <row r="166" x14ac:dyDescent="0.2">
+      <c r="A166" s="0">
         <v>28</v>
       </c>
-      <c r="B165">
+      <c r="B166" s="0">
         <v>1</v>
       </c>
-      <c r="C165">
+      <c r="C166" s="0">
         <v>66</v>
       </c>
-      <c r="D165">
+      <c r="D166" s="0">
         <v>21.935979460886948</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="E166" s="0">
+        <v>25.064620995042205</v>
+      </c>
+      <c r="F166" s="0">
+        <v>1.4950652080390983</v>
+      </c>
+    </row>
+    <row r="167" x14ac:dyDescent="0.2">
+      <c r="A167" s="0">
         <v>28</v>
       </c>
-      <c r="B166">
+      <c r="B167" s="0">
         <v>2</v>
       </c>
-      <c r="C166">
+      <c r="C167" s="0">
         <v>51</v>
       </c>
-      <c r="D166">
+      <c r="D167" s="0">
         <v>26.805878978116201</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="E167" s="0">
+        <v>41.14161025777193</v>
+      </c>
+      <c r="F167" s="0">
+        <v>1.3334801591548371</v>
+      </c>
+    </row>
+    <row r="168" x14ac:dyDescent="0.2">
+      <c r="A168" s="0">
         <v>28</v>
       </c>
-      <c r="B167">
-        <v>3</v>
-      </c>
-      <c r="C167">
+      <c r="B168" s="0">
+        <v>3</v>
+      </c>
+      <c r="C168" s="0">
         <v>45</v>
       </c>
-      <c r="D167">
+      <c r="D168" s="0">
         <v>23.828286111163216</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="E168" s="0">
+        <v>4.7539169707175493</v>
+      </c>
+      <c r="F168" s="0">
+        <v>1.0754761047309638</v>
+      </c>
+    </row>
+    <row r="169" x14ac:dyDescent="0.2">
+      <c r="A169" s="0">
         <v>28</v>
       </c>
-      <c r="B168">
+      <c r="B169" s="0">
         <v>4</v>
       </c>
-      <c r="C168">
+      <c r="C169" s="0">
         <v>55</v>
       </c>
-      <c r="D168">
+      <c r="D169" s="0">
         <v>22.294922944671942</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="E169" s="0">
+        <v>158.31633049375895</v>
+      </c>
+      <c r="F169" s="0">
+        <v>1.0702802016736066</v>
+      </c>
+    </row>
+    <row r="170" x14ac:dyDescent="0.2">
+      <c r="A170" s="0">
         <v>28</v>
       </c>
-      <c r="B169">
+      <c r="B170" s="0">
         <v>5</v>
       </c>
-      <c r="C169">
+      <c r="C170" s="0">
         <v>49</v>
       </c>
-      <c r="D169">
+      <c r="D170" s="0">
         <v>25.734276729361245</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="E170" s="0">
+        <v>50.905150519208263</v>
+      </c>
+      <c r="F170" s="0">
+        <v>0.98956862931245593</v>
+      </c>
+    </row>
+    <row r="171" x14ac:dyDescent="0.2">
+      <c r="A171" s="0">
         <v>29</v>
       </c>
-      <c r="B170">
+      <c r="B171" s="0">
         <v>1</v>
       </c>
-      <c r="C170">
+      <c r="C171" s="0">
         <v>57</v>
       </c>
-      <c r="D170">
+      <c r="D171" s="0">
         <v>23.409859320601832</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="E171" s="0">
+        <v>127.2809686829723</v>
+      </c>
+      <c r="F171" s="0">
+        <v>1.2116016649892403</v>
+      </c>
+    </row>
+    <row r="172" x14ac:dyDescent="0.2">
+      <c r="A172" s="0">
         <v>29</v>
       </c>
-      <c r="B171">
+      <c r="B172" s="0">
         <v>2</v>
       </c>
-      <c r="C171">
+      <c r="C172" s="0">
         <v>62</v>
       </c>
-      <c r="D171">
+      <c r="D172" s="0">
         <v>20.901531246754672</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="E172" s="0">
+        <v>15.495456995582924</v>
+      </c>
+      <c r="F172" s="0">
+        <v>1.1195230203768456</v>
+      </c>
+    </row>
+    <row r="173" x14ac:dyDescent="0.2">
+      <c r="A173" s="0">
         <v>29</v>
       </c>
-      <c r="B172">
-        <v>3</v>
-      </c>
-      <c r="C172">
+      <c r="B173" s="0">
+        <v>3</v>
+      </c>
+      <c r="C173" s="0">
         <v>61</v>
       </c>
-      <c r="D172">
+      <c r="D173" s="0">
         <v>22.87395414605416</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="E173" s="0">
+        <v>2.7152566522053037</v>
+      </c>
+      <c r="F173" s="0">
+        <v>1.1698511314374611</v>
+      </c>
+    </row>
+    <row r="174" x14ac:dyDescent="0.2">
+      <c r="A174" s="0">
         <v>29</v>
       </c>
-      <c r="B173">
+      <c r="B174" s="0">
         <v>4</v>
       </c>
-      <c r="C173">
+      <c r="C174" s="0">
         <v>54</v>
       </c>
-      <c r="D173">
+      <c r="D174" s="0">
         <v>27.4215841454083</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="E174" s="0">
+        <v>15.474340709429409</v>
+      </c>
+      <c r="F174" s="0">
+        <v>1.4234498530378461</v>
+      </c>
+    </row>
+    <row r="175" x14ac:dyDescent="0.2">
+      <c r="A175" s="0">
         <v>29</v>
       </c>
-      <c r="B174">
+      <c r="B175" s="0">
         <v>5</v>
       </c>
-      <c r="C174">
+      <c r="C175" s="0">
         <v>59</v>
       </c>
-      <c r="D174">
+      <c r="D175" s="0">
         <v>23.688693732180017</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="E175" s="0">
+        <v>59.427799317412585</v>
+      </c>
+      <c r="F175" s="0">
+        <v>1.1998285479538509</v>
+      </c>
+    </row>
+    <row r="176" x14ac:dyDescent="0.2">
+      <c r="A176" s="0">
         <v>30</v>
       </c>
-      <c r="B175">
+      <c r="B176" s="0">
         <v>1</v>
       </c>
-      <c r="C175">
+      <c r="C176" s="0">
         <v>47</v>
       </c>
-      <c r="D175">
+      <c r="D176" s="0">
         <v>23.53273869890986</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="E176" s="0">
+        <v>81.351783867888088</v>
+      </c>
+      <c r="F176" s="0">
+        <v>1.2402073785591525</v>
+      </c>
+    </row>
+    <row r="177" x14ac:dyDescent="0.2">
+      <c r="A177" s="0">
         <v>30</v>
       </c>
-      <c r="B176">
+      <c r="B177" s="0">
         <v>2</v>
       </c>
-      <c r="C176">
+      <c r="C177" s="0">
         <v>38</v>
       </c>
-      <c r="D176">
+      <c r="D177" s="0">
         <v>31.061156754562173</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="E177" s="0">
+        <v>72.207870164522319</v>
+      </c>
+      <c r="F177" s="0">
+        <v>1.4244859334530175</v>
+      </c>
+    </row>
+    <row r="178" x14ac:dyDescent="0.2">
+      <c r="A178" s="0">
         <v>30</v>
       </c>
-      <c r="B177">
-        <v>3</v>
-      </c>
-      <c r="C177">
+      <c r="B178" s="0">
+        <v>3</v>
+      </c>
+      <c r="C178" s="0">
         <v>52</v>
       </c>
-      <c r="D177">
+      <c r="D178" s="0">
         <v>23.677988272215845</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="E178" s="0">
+        <v>49.8018953379189</v>
+      </c>
+      <c r="F178" s="0">
+        <v>1.4766625644531137</v>
+      </c>
+    </row>
+    <row r="179" x14ac:dyDescent="0.2">
+      <c r="A179" s="0">
         <v>30</v>
       </c>
-      <c r="B178">
+      <c r="B179" s="0">
         <v>4</v>
       </c>
-      <c r="C178">
+      <c r="C179" s="0">
         <v>68</v>
       </c>
-      <c r="D178">
+      <c r="D179" s="0">
         <v>22.264279013530579</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="E179" s="0">
+        <v>4.3485601397064118</v>
+      </c>
+      <c r="F179" s="0">
+        <v>1.706689010762759</v>
+      </c>
+    </row>
+    <row r="180" x14ac:dyDescent="0.2">
+      <c r="A180" s="0">
         <v>30</v>
       </c>
-      <c r="B179">
+      <c r="B180" s="0">
         <v>5</v>
       </c>
-      <c r="C179">
+      <c r="C180" s="0">
         <v>47</v>
       </c>
-      <c r="D179">
+      <c r="D180" s="0">
         <v>23.511546195153265</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="E180" s="0">
+        <v>93.622997936325234</v>
+      </c>
+      <c r="F180" s="0">
+        <v>1.5421557758093372</v>
+      </c>
+    </row>
+    <row r="181" x14ac:dyDescent="0.2">
+      <c r="A181" s="0">
         <v>31</v>
       </c>
-      <c r="B180">
+      <c r="B181" s="0">
         <v>1</v>
       </c>
-      <c r="C180">
+      <c r="C181" s="0">
         <v>64</v>
       </c>
-      <c r="D180">
+      <c r="D181" s="0">
         <v>22.022706719005427</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="E181" s="0">
+        <v>1.1704225731743889</v>
+      </c>
+      <c r="F181" s="0">
+        <v>1.5183594710675301</v>
+      </c>
+    </row>
+    <row r="182" x14ac:dyDescent="0.2">
+      <c r="A182" s="0">
         <v>31</v>
       </c>
-      <c r="B181">
+      <c r="B182" s="0">
         <v>2</v>
       </c>
-      <c r="C181">
+      <c r="C182" s="0">
         <v>54</v>
       </c>
-      <c r="D181">
+      <c r="D182" s="0">
         <v>24.552207801834374</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="E182" s="0">
+        <v>42.726808519076613</v>
+      </c>
+      <c r="F182" s="0">
+        <v>1.7271537121518543</v>
+      </c>
+    </row>
+    <row r="183" x14ac:dyDescent="0.2">
+      <c r="A183" s="0">
         <v>31</v>
       </c>
-      <c r="B182">
-        <v>3</v>
-      </c>
-      <c r="C182">
+      <c r="B183" s="0">
+        <v>3</v>
+      </c>
+      <c r="C183" s="0">
         <v>135</v>
       </c>
-      <c r="D182">
+      <c r="D183" s="0">
         <v>11.376019925097724</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="E183" s="0">
+        <v>2.1888740409457697</v>
+      </c>
+      <c r="F183" s="0">
+        <v>1.8297096930010295</v>
+      </c>
+    </row>
+    <row r="184" x14ac:dyDescent="0.2">
+      <c r="A184" s="0">
         <v>31</v>
       </c>
-      <c r="B183">
+      <c r="B184" s="0">
         <v>4</v>
       </c>
-      <c r="C183">
+      <c r="C184" s="0">
         <v>55</v>
       </c>
-      <c r="D183">
+      <c r="D184" s="0">
         <v>24.069767270146407</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="E184" s="0">
+        <v>36.070075638821734</v>
+      </c>
+      <c r="F184" s="0">
+        <v>1.635534040143384</v>
+      </c>
+    </row>
+    <row r="185" x14ac:dyDescent="0.2">
+      <c r="A185" s="0">
         <v>31</v>
       </c>
-      <c r="B184">
+      <c r="B185" s="0">
         <v>5</v>
       </c>
-      <c r="C184">
+      <c r="C185" s="0">
         <v>62</v>
       </c>
-      <c r="D184">
+      <c r="D185" s="0">
         <v>20.548528100535197</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="E185" s="0">
+        <v>73.527765737893759</v>
+      </c>
+      <c r="F185" s="0">
+        <v>1.6625210243785153</v>
+      </c>
+    </row>
+    <row r="186" x14ac:dyDescent="0.2">
+      <c r="A186" s="0">
         <v>32</v>
       </c>
-      <c r="B185">
+      <c r="B186" s="0">
         <v>1</v>
       </c>
-      <c r="C185">
+      <c r="C186" s="0">
         <v>58</v>
       </c>
-      <c r="D185">
+      <c r="D186" s="0">
         <v>23.336125559520756</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="E186" s="0">
+        <v>16.656335126556641</v>
+      </c>
+      <c r="F186" s="0">
+        <v>1.1526022422260023</v>
+      </c>
+    </row>
+    <row r="187" x14ac:dyDescent="0.2">
+      <c r="A187" s="0">
         <v>32</v>
       </c>
-      <c r="B186">
+      <c r="B187" s="0">
         <v>2</v>
       </c>
-      <c r="C186">
+      <c r="C187" s="0">
         <v>63</v>
       </c>
-      <c r="D186">
+      <c r="D187" s="0">
         <v>23.012389375955141</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="E187" s="0">
+        <v>14.31763233229092</v>
+      </c>
+      <c r="F187" s="0">
+        <v>1.544885334422061</v>
+      </c>
+    </row>
+    <row r="188" x14ac:dyDescent="0.2">
+      <c r="A188" s="0">
         <v>32</v>
       </c>
-      <c r="B187">
-        <v>3</v>
-      </c>
-      <c r="C187">
+      <c r="B188" s="0">
+        <v>3</v>
+      </c>
+      <c r="C188" s="0">
         <v>56</v>
       </c>
-      <c r="D187">
+      <c r="D188" s="0">
         <v>23.863410493161407</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="E188" s="0">
+        <v>16.411522641338259</v>
+      </c>
+      <c r="F188" s="0">
+        <v>1.2544632466561012</v>
+      </c>
+    </row>
+    <row r="189" x14ac:dyDescent="0.2">
+      <c r="A189" s="0">
         <v>32</v>
       </c>
-      <c r="B188">
+      <c r="B189" s="0">
         <v>4</v>
       </c>
-      <c r="C188">
+      <c r="C189" s="0">
         <v>56</v>
       </c>
-      <c r="D188">
+      <c r="D189" s="0">
         <v>26.771025287784163</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="E189" s="0">
+        <v>22.797777086119396</v>
+      </c>
+      <c r="F189" s="0">
+        <v>1.2189946305110406</v>
+      </c>
+    </row>
+    <row r="190" x14ac:dyDescent="0.2">
+      <c r="A190" s="0">
         <v>32</v>
       </c>
-      <c r="B189">
+      <c r="B190" s="0">
         <v>5</v>
       </c>
-      <c r="C189">
+      <c r="C190" s="0">
         <v>57</v>
       </c>
-      <c r="D189">
+      <c r="D190" s="0">
         <v>24.979575401824956</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="E190" s="0">
+        <v>5.5303715224524845</v>
+      </c>
+      <c r="F190" s="0">
+        <v>1.2150826318718932</v>
+      </c>
+    </row>
+    <row r="191" x14ac:dyDescent="0.2">
+      <c r="A191" s="0">
         <v>33</v>
       </c>
-      <c r="B190">
+      <c r="B191" s="0">
         <v>1</v>
       </c>
-      <c r="C190">
+      <c r="C191" s="0">
         <v>47</v>
       </c>
-      <c r="D190">
+      <c r="D191" s="0">
         <v>27.334589810235563</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="E191" s="0">
+        <v>77.788877649661828</v>
+      </c>
+      <c r="F191" s="0">
+        <v>1.1395116834722163</v>
+      </c>
+    </row>
+    <row r="192" x14ac:dyDescent="0.2">
+      <c r="A192" s="0">
         <v>33</v>
       </c>
-      <c r="B191">
+      <c r="B192" s="0">
         <v>2</v>
       </c>
-      <c r="C191">
+      <c r="C192" s="0">
         <v>55</v>
       </c>
-      <c r="D191">
+      <c r="D192" s="0">
         <v>24.443094545194132</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="E192" s="0">
+        <v>10.749857224616461</v>
+      </c>
+      <c r="F192" s="0">
+        <v>1.2375480994035424</v>
+      </c>
+    </row>
+    <row r="193" x14ac:dyDescent="0.2">
+      <c r="A193" s="0">
         <v>33</v>
       </c>
-      <c r="B192">
-        <v>3</v>
-      </c>
-      <c r="C192">
+      <c r="B193" s="0">
+        <v>3</v>
+      </c>
+      <c r="C193" s="0">
         <v>64</v>
       </c>
-      <c r="D192">
+      <c r="D193" s="0">
         <v>21.733846617223247</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="E193" s="0">
+        <v>56.363109619542584</v>
+      </c>
+      <c r="F193" s="0">
+        <v>1.4693410607303785</v>
+      </c>
+    </row>
+    <row r="194" x14ac:dyDescent="0.2">
+      <c r="A194" s="0">
         <v>33</v>
       </c>
-      <c r="B193">
+      <c r="B194" s="0">
         <v>4</v>
       </c>
-      <c r="C193">
+      <c r="C194" s="0">
         <v>49</v>
       </c>
-      <c r="D193">
+      <c r="D194" s="0">
         <v>23.840543274747507</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="E194" s="0">
+        <v>52.246662955212962</v>
+      </c>
+      <c r="F194" s="0">
+        <v>1.4500919854857814</v>
+      </c>
+    </row>
+    <row r="195" x14ac:dyDescent="0.2">
+      <c r="A195" s="0">
         <v>34</v>
       </c>
-      <c r="B194">
+      <c r="B195" s="0">
         <v>1</v>
       </c>
-      <c r="C194">
+      <c r="C195" s="0">
         <v>61</v>
       </c>
-      <c r="D194">
+      <c r="D195" s="0">
         <v>23.366932571976584</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="E195" s="0">
+        <v>3.6900248815034535</v>
+      </c>
+      <c r="F195" s="0">
+        <v>1.3714764302767319</v>
+      </c>
+    </row>
+    <row r="196" x14ac:dyDescent="0.2">
+      <c r="A196" s="0">
         <v>34</v>
       </c>
-      <c r="B195">
+      <c r="B196" s="0">
         <v>2</v>
       </c>
-      <c r="C195">
+      <c r="C196" s="0">
         <v>57</v>
       </c>
-      <c r="D195">
+      <c r="D196" s="0">
         <v>25.438277250246752</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="E196" s="0">
+        <v>3.511267719523167</v>
+      </c>
+      <c r="F196" s="0">
+        <v>1.2293036658945409</v>
+      </c>
+    </row>
+    <row r="197" x14ac:dyDescent="0.2">
+      <c r="A197" s="0">
         <v>34</v>
       </c>
-      <c r="B196">
-        <v>3</v>
-      </c>
-      <c r="C196">
+      <c r="B197" s="0">
+        <v>3</v>
+      </c>
+      <c r="C197" s="0">
         <v>62</v>
       </c>
-      <c r="D196">
+      <c r="D197" s="0">
         <v>24.206816952041045</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="E197" s="0">
+        <v>37.678458337600532</v>
+      </c>
+      <c r="F197" s="0">
+        <v>1.199446178014445</v>
+      </c>
+    </row>
+    <row r="198" x14ac:dyDescent="0.2">
+      <c r="A198" s="0">
         <v>34</v>
       </c>
-      <c r="B197">
+      <c r="B198" s="0">
         <v>4</v>
       </c>
-      <c r="C197">
+      <c r="C198" s="0">
         <v>80</v>
       </c>
-      <c r="D197">
+      <c r="D198" s="0">
         <v>20.196310762976559</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="E198" s="0">
+        <v>39.785457716850999</v>
+      </c>
+      <c r="F198" s="0">
+        <v>1.1239893317280243</v>
+      </c>
+    </row>
+    <row r="199" x14ac:dyDescent="0.2">
+      <c r="A199" s="0">
         <v>34</v>
       </c>
-      <c r="B198">
+      <c r="B199" s="0">
         <v>5</v>
       </c>
-      <c r="C198">
+      <c r="C199" s="0">
         <v>51</v>
       </c>
-      <c r="D198">
+      <c r="D199" s="0">
         <v>27.558557540909497</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="E199" s="0">
+        <v>87.754084710466316</v>
+      </c>
+      <c r="F199" s="0">
+        <v>1.3833471741799972</v>
+      </c>
+    </row>
+    <row r="200" x14ac:dyDescent="0.2">
+      <c r="A200" s="0">
         <v>35</v>
       </c>
-      <c r="B199">
+      <c r="B200" s="0">
         <v>1</v>
       </c>
-      <c r="C199">
+      <c r="C200" s="0">
         <v>97</v>
       </c>
-      <c r="D199">
+      <c r="D200" s="0">
         <v>12.571405299822498</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="E200" s="0">
+        <v>10.997391156466845</v>
+      </c>
+      <c r="F200" s="0">
+        <v>3.205976736302139</v>
+      </c>
+    </row>
+    <row r="201" x14ac:dyDescent="0.2">
+      <c r="A201" s="0">
         <v>35</v>
       </c>
-      <c r="B200">
+      <c r="B201" s="0">
         <v>2</v>
       </c>
-      <c r="C200">
+      <c r="C201" s="0">
         <v>67</v>
       </c>
-      <c r="D200">
+      <c r="D201" s="0">
         <v>19.374444982269768</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="E201" s="0">
+        <v>22.928450324840039</v>
+      </c>
+      <c r="F201" s="0">
+        <v>1.8322215854842594</v>
+      </c>
+    </row>
+    <row r="202" x14ac:dyDescent="0.2">
+      <c r="A202" s="0">
         <v>35</v>
       </c>
-      <c r="B201">
-        <v>3</v>
-      </c>
-      <c r="C201">
+      <c r="B202" s="0">
+        <v>3</v>
+      </c>
+      <c r="C202" s="0">
         <v>58</v>
       </c>
-      <c r="D201">
+      <c r="D202" s="0">
         <v>18.442895928161054</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="E202" s="0">
+        <v>86.928807059397954</v>
+      </c>
+      <c r="F202" s="0">
+        <v>1.5687534769957039</v>
+      </c>
+    </row>
+    <row r="203" x14ac:dyDescent="0.2">
+      <c r="A203" s="0">
         <v>35</v>
       </c>
-      <c r="B202">
+      <c r="B203" s="0">
         <v>4</v>
       </c>
-      <c r="C202">
+      <c r="C203" s="0">
         <v>74</v>
       </c>
-      <c r="D202">
+      <c r="D203" s="0">
         <v>18.639876566366475</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="E203" s="0">
+        <v>71.226265076498393</v>
+      </c>
+      <c r="F203" s="0">
+        <v>1.4657465915091052</v>
+      </c>
+    </row>
+    <row r="204" x14ac:dyDescent="0.2">
+      <c r="A204" s="0">
         <v>36</v>
       </c>
-      <c r="B203">
+      <c r="B204" s="0">
         <v>1</v>
       </c>
-      <c r="C203">
+      <c r="C204" s="0">
         <v>56</v>
       </c>
-      <c r="D203">
+      <c r="D204" s="0">
         <v>23.713432065879541</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="E204" s="0">
+        <v>41.687637054511015</v>
+      </c>
+      <c r="F204" s="0">
+        <v>1.094011970518137</v>
+      </c>
+    </row>
+    <row r="205" x14ac:dyDescent="0.2">
+      <c r="A205" s="0">
         <v>36</v>
       </c>
-      <c r="B204">
+      <c r="B205" s="0">
         <v>2</v>
       </c>
-      <c r="C204">
+      <c r="C205" s="0">
         <v>69</v>
       </c>
-      <c r="D204">
+      <c r="D205" s="0">
         <v>26.00445029317963</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="E205" s="0">
+        <v>59.785926924544071</v>
+      </c>
+      <c r="F205" s="0">
+        <v>1.1737206218555591</v>
+      </c>
+    </row>
+    <row r="206" x14ac:dyDescent="0.2">
+      <c r="A206" s="0">
         <v>36</v>
       </c>
-      <c r="B205">
-        <v>3</v>
-      </c>
-      <c r="C205">
+      <c r="B206" s="0">
+        <v>3</v>
+      </c>
+      <c r="C206" s="0">
         <v>53</v>
       </c>
-      <c r="D205">
+      <c r="D206" s="0">
         <v>28.029088011324806</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="E206" s="0">
+        <v>5.999070150282594</v>
+      </c>
+      <c r="F206" s="0">
+        <v>1.0813485778931939</v>
+      </c>
+    </row>
+    <row r="207" x14ac:dyDescent="0.2">
+      <c r="A207" s="0">
         <v>36</v>
       </c>
-      <c r="B206">
+      <c r="B207" s="0">
         <v>4</v>
       </c>
-      <c r="C206">
+      <c r="C207" s="0">
         <v>53</v>
       </c>
-      <c r="D206">
+      <c r="D207" s="0">
         <v>29.847898120761968</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="E207" s="0">
+        <v>63.216867688934947</v>
+      </c>
+      <c r="F207" s="0">
+        <v>1.0542080935940217</v>
+      </c>
+    </row>
+    <row r="208" x14ac:dyDescent="0.2">
+      <c r="A208" s="0">
         <v>36</v>
       </c>
-      <c r="B207">
+      <c r="B208" s="0">
         <v>5</v>
       </c>
-      <c r="C207">
+      <c r="C208" s="0">
         <v>45</v>
       </c>
-      <c r="D207">
+      <c r="D208" s="0">
         <v>27.616521084058547</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="E208" s="0">
+        <v>142.75327070307333</v>
+      </c>
+      <c r="F208" s="0">
+        <v>1.0198898701924615</v>
+      </c>
+    </row>
+    <row r="209" x14ac:dyDescent="0.2">
+      <c r="A209" s="0">
         <v>37</v>
       </c>
-      <c r="B208">
+      <c r="B209" s="0">
         <v>1</v>
       </c>
-      <c r="C208">
+      <c r="C209" s="0">
         <v>44</v>
       </c>
-      <c r="D208">
+      <c r="D209" s="0">
         <v>30.681415038165948</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="E209" s="0">
+        <v>41.230862975407</v>
+      </c>
+      <c r="F209" s="0">
+        <v>1.2139787476771962</v>
+      </c>
+    </row>
+    <row r="210" x14ac:dyDescent="0.2">
+      <c r="A210" s="0">
         <v>37</v>
       </c>
-      <c r="B209">
+      <c r="B210" s="0">
         <v>2</v>
       </c>
-      <c r="C209">
+      <c r="C210" s="0">
         <v>75</v>
       </c>
-      <c r="D209">
+      <c r="D210" s="0">
         <v>19.741642902450778</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="E210" s="0">
+        <v>61.776410458163085</v>
+      </c>
+      <c r="F210" s="0">
+        <v>1.3848280116079341</v>
+      </c>
+    </row>
+    <row r="211" x14ac:dyDescent="0.2">
+      <c r="A211" s="0">
         <v>37</v>
       </c>
-      <c r="B210">
-        <v>3</v>
-      </c>
-      <c r="C210">
+      <c r="B211" s="0">
+        <v>3</v>
+      </c>
+      <c r="C211" s="0">
         <v>87</v>
       </c>
-      <c r="D210">
+      <c r="D211" s="0">
         <v>18.909448899677471</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="E211" s="0">
+        <v>20.096503074523326</v>
+      </c>
+      <c r="F211" s="0">
+        <v>1.6511616588378668</v>
+      </c>
+    </row>
+    <row r="212" x14ac:dyDescent="0.2">
+      <c r="A212" s="0">
         <v>37</v>
       </c>
-      <c r="B211">
+      <c r="B212" s="0">
         <v>4</v>
       </c>
-      <c r="C211">
+      <c r="C212" s="0">
         <v>73</v>
       </c>
-      <c r="D211">
+      <c r="D212" s="0">
         <v>19.002885198794715</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="E212" s="0">
+        <v>7.8101166281107641</v>
+      </c>
+      <c r="F212" s="0">
+        <v>1.927256803103889</v>
+      </c>
+    </row>
+    <row r="213" x14ac:dyDescent="0.2">
+      <c r="A213" s="0">
         <v>37</v>
       </c>
-      <c r="B212">
+      <c r="B213" s="0">
         <v>5</v>
       </c>
-      <c r="C212">
+      <c r="C213" s="0">
         <v>66</v>
       </c>
-      <c r="D212">
+      <c r="D213" s="0">
         <v>23.684827132811272</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="E213" s="0">
+        <v>94.423306362157007</v>
+      </c>
+      <c r="F213" s="0">
+        <v>1.682310095411925</v>
+      </c>
+    </row>
+    <row r="214" x14ac:dyDescent="0.2">
+      <c r="A214" s="0">
         <v>38</v>
       </c>
-      <c r="B213">
+      <c r="B214" s="0">
         <v>1</v>
       </c>
-      <c r="C213">
+      <c r="C214" s="0">
         <v>67</v>
       </c>
-      <c r="D213">
+      <c r="D214" s="0">
         <v>23.299676072438086</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="E214" s="0">
+        <v>16.29280749074109</v>
+      </c>
+      <c r="F214" s="0">
+        <v>1.4501377791075558</v>
+      </c>
+    </row>
+    <row r="215" x14ac:dyDescent="0.2">
+      <c r="A215" s="0">
         <v>38</v>
       </c>
-      <c r="B214">
+      <c r="B215" s="0">
         <v>2</v>
       </c>
-      <c r="C214">
+      <c r="C215" s="0">
         <v>49</v>
       </c>
-      <c r="D214">
+      <c r="D215" s="0">
         <v>22.803716949079778</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="E215" s="0">
+        <v>28.452580339311314</v>
+      </c>
+      <c r="F215" s="0">
+        <v>1.1627582099826201</v>
+      </c>
+    </row>
+    <row r="216" x14ac:dyDescent="0.2">
+      <c r="A216" s="0">
         <v>38</v>
       </c>
-      <c r="B215">
-        <v>3</v>
-      </c>
-      <c r="C215">
+      <c r="B216" s="0">
+        <v>3</v>
+      </c>
+      <c r="C216" s="0">
         <v>50</v>
       </c>
-      <c r="D215">
+      <c r="D216" s="0">
         <v>23.935318266166686</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="E216" s="0">
+        <v>16.56516222519743</v>
+      </c>
+      <c r="F216" s="0">
+        <v>1.3378205652512387</v>
+      </c>
+    </row>
+    <row r="217" x14ac:dyDescent="0.2">
+      <c r="A217" s="0">
         <v>38</v>
       </c>
-      <c r="B216">
+      <c r="B217" s="0">
         <v>4</v>
       </c>
-      <c r="C216">
+      <c r="C217" s="0">
         <v>59</v>
       </c>
-      <c r="D216">
+      <c r="D217" s="0">
         <v>26.491282243625665</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="E217" s="0">
+        <v>58.656599719159153</v>
+      </c>
+      <c r="F217" s="0">
+        <v>1.3941966245835813</v>
+      </c>
+    </row>
+    <row r="218" x14ac:dyDescent="0.2">
+      <c r="A218" s="0">
         <v>38</v>
       </c>
-      <c r="B217">
+      <c r="B218" s="0">
         <v>5</v>
       </c>
-      <c r="C217">
+      <c r="C218" s="0">
         <v>59</v>
       </c>
-      <c r="D217">
+      <c r="D218" s="0">
         <v>25.200944127725947</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="E218" s="0">
+        <v>57.454558927154125</v>
+      </c>
+      <c r="F218" s="0">
+        <v>1.3141368869299597</v>
+      </c>
+    </row>
+    <row r="219" x14ac:dyDescent="0.2">
+      <c r="A219" s="0">
         <v>39</v>
       </c>
-      <c r="B218">
+      <c r="B219" s="0">
         <v>1</v>
       </c>
-      <c r="C218">
+      <c r="C219" s="0">
         <v>84</v>
       </c>
-      <c r="D218">
+      <c r="D219" s="0">
         <v>19.235289615503298</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="E219" s="0">
+        <v>49.54496352151552</v>
+      </c>
+      <c r="F219" s="0">
+        <v>1.3864823600451526</v>
+      </c>
+    </row>
+    <row r="220" x14ac:dyDescent="0.2">
+      <c r="A220" s="0">
         <v>39</v>
       </c>
-      <c r="B219">
+      <c r="B220" s="0">
         <v>2</v>
       </c>
-      <c r="C219">
+      <c r="C220" s="0">
         <v>56</v>
       </c>
-      <c r="D219">
+      <c r="D220" s="0">
         <v>23.979940031859226</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="E220" s="0">
+        <v>4.4579946493378797</v>
+      </c>
+      <c r="F220" s="0">
+        <v>1.0824221996878711</v>
+      </c>
+    </row>
+    <row r="221" x14ac:dyDescent="0.2">
+      <c r="A221" s="0">
         <v>39</v>
       </c>
-      <c r="B220">
-        <v>3</v>
-      </c>
-      <c r="C220">
+      <c r="B221" s="0">
+        <v>3</v>
+      </c>
+      <c r="C221" s="0">
         <v>51</v>
       </c>
-      <c r="D220">
+      <c r="D221" s="0">
         <v>21.911847423500408</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="E221" s="0">
+        <v>12.058518401681431</v>
+      </c>
+      <c r="F221" s="0">
+        <v>1.2551983964733584</v>
+      </c>
+    </row>
+    <row r="222" x14ac:dyDescent="0.2">
+      <c r="A222" s="0">
         <v>39</v>
       </c>
-      <c r="B221">
+      <c r="B222" s="0">
         <v>4</v>
       </c>
-      <c r="C221">
+      <c r="C222" s="0">
         <v>56</v>
       </c>
-      <c r="D221">
+      <c r="D222" s="0">
         <v>23.212487391336165</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="E222" s="0">
+        <v>12.994395250245306</v>
+      </c>
+      <c r="F222" s="0">
+        <v>1.232746657423748</v>
+      </c>
+    </row>
+    <row r="223" x14ac:dyDescent="0.2">
+      <c r="A223" s="0">
         <v>39</v>
       </c>
-      <c r="B222">
+      <c r="B223" s="0">
         <v>5</v>
       </c>
-      <c r="C222">
+      <c r="C223" s="0">
         <v>86</v>
       </c>
-      <c r="D222">
+      <c r="D223" s="0">
         <v>24.097068922386057</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="E223" s="0">
+        <v>48.33636521294369</v>
+      </c>
+      <c r="F223" s="0">
+        <v>1.3605128316198236</v>
+      </c>
+    </row>
+    <row r="224" x14ac:dyDescent="0.2">
+      <c r="A224" s="0">
         <v>40</v>
       </c>
-      <c r="B223">
+      <c r="B224" s="0">
         <v>1</v>
       </c>
-      <c r="C223">
+      <c r="C224" s="0">
         <v>39</v>
       </c>
-      <c r="D223">
+      <c r="D224" s="0">
         <v>27.331892682737152</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="E224" s="0">
+        <v>115.74706745565668</v>
+      </c>
+      <c r="F224" s="0">
+        <v>1.7223396722704043</v>
+      </c>
+    </row>
+    <row r="225" x14ac:dyDescent="0.2">
+      <c r="A225" s="0">
         <v>40</v>
       </c>
-      <c r="B224">
+      <c r="B225" s="0">
         <v>2</v>
       </c>
-      <c r="C224">
+      <c r="C225" s="0">
         <v>36</v>
       </c>
-      <c r="D224">
+      <c r="D225" s="0">
         <v>30.469607658477955</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="E225" s="0">
+        <v>94.94339487924556</v>
+      </c>
+      <c r="F225" s="0">
+        <v>1.4169831970727162</v>
+      </c>
+    </row>
+    <row r="226" x14ac:dyDescent="0.2">
+      <c r="A226" s="0">
         <v>40</v>
       </c>
-      <c r="B225">
-        <v>3</v>
-      </c>
-      <c r="C225">
+      <c r="B226" s="0">
+        <v>3</v>
+      </c>
+      <c r="C226" s="0">
         <v>54</v>
       </c>
-      <c r="D225">
+      <c r="D226" s="0">
         <v>22.205529482867139</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226">
+      <c r="E226" s="0">
+        <v>22.398725757249256</v>
+      </c>
+      <c r="F226" s="0">
+        <v>1.564388526613758</v>
+      </c>
+    </row>
+    <row r="227" x14ac:dyDescent="0.2">
+      <c r="A227" s="0">
         <v>40</v>
       </c>
-      <c r="B226">
+      <c r="B227" s="0">
         <v>4</v>
       </c>
-      <c r="C226">
+      <c r="C227" s="0">
         <v>62</v>
       </c>
-      <c r="D226">
+      <c r="D227" s="0">
         <v>19.143158306193886</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227">
+      <c r="E227" s="0">
+        <v>88.215032486879096</v>
+      </c>
+      <c r="F227" s="0">
+        <v>1.6273793439080377</v>
+      </c>
+    </row>
+    <row r="228" x14ac:dyDescent="0.2">
+      <c r="A228" s="0">
         <v>40</v>
       </c>
-      <c r="B227">
+      <c r="B228" s="0">
         <v>5</v>
       </c>
-      <c r="C227">
+      <c r="C228" s="0">
         <v>50</v>
       </c>
-      <c r="D227">
+      <c r="D228" s="0">
         <v>22.973490690442315</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="E228" s="0">
+        <v>27.211320838563978</v>
+      </c>
+      <c r="F228" s="0">
+        <v>1.6687495142419622</v>
+      </c>
+    </row>
+    <row r="229" x14ac:dyDescent="0.2">
+      <c r="A229" s="0">
         <v>41</v>
       </c>
-      <c r="B228">
+      <c r="B229" s="0">
         <v>1</v>
       </c>
-      <c r="C228">
+      <c r="C229" s="0">
         <v>54</v>
       </c>
-      <c r="D228">
+      <c r="D229" s="0">
         <v>25.987644945041225</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229">
+      <c r="E229" s="0">
+        <v>4.8895460715067625</v>
+      </c>
+      <c r="F229" s="0">
+        <v>1.6953468613228171</v>
+      </c>
+    </row>
+    <row r="230" x14ac:dyDescent="0.2">
+      <c r="A230" s="0">
         <v>41</v>
       </c>
-      <c r="B229">
+      <c r="B230" s="0">
         <v>2</v>
       </c>
-      <c r="C229">
+      <c r="C230" s="0">
         <v>68</v>
       </c>
-      <c r="D229">
+      <c r="D230" s="0">
         <v>23.214855517113904</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230">
+      <c r="E230" s="0">
+        <v>68.106376886686562</v>
+      </c>
+      <c r="F230" s="0">
+        <v>1.6061148591958412</v>
+      </c>
+    </row>
+    <row r="231" x14ac:dyDescent="0.2">
+      <c r="A231" s="0">
         <v>41</v>
       </c>
-      <c r="B230">
-        <v>3</v>
-      </c>
-      <c r="C230">
+      <c r="B231" s="0">
+        <v>3</v>
+      </c>
+      <c r="C231" s="0">
         <v>88</v>
       </c>
-      <c r="D230">
+      <c r="D231" s="0">
         <v>19.066165948147717</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231">
+      <c r="E231" s="0">
+        <v>81.722077777720102</v>
+      </c>
+      <c r="F231" s="0">
+        <v>1.8483042306129327</v>
+      </c>
+    </row>
+    <row r="232" x14ac:dyDescent="0.2">
+      <c r="A232" s="0">
         <v>41</v>
       </c>
-      <c r="B231">
+      <c r="B232" s="0">
         <v>4</v>
       </c>
-      <c r="C231">
+      <c r="C232" s="0">
         <v>59</v>
       </c>
-      <c r="D231">
+      <c r="D232" s="0">
         <v>24.698153137932586</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232">
+      <c r="E232" s="0">
+        <v>109.96173607947817</v>
+      </c>
+      <c r="F232" s="0">
+        <v>1.4399998131171334</v>
+      </c>
+    </row>
+    <row r="233" x14ac:dyDescent="0.2">
+      <c r="A233" s="0">
         <v>41</v>
       </c>
-      <c r="B232">
+      <c r="B233" s="0">
         <v>5</v>
       </c>
-      <c r="C232">
+      <c r="C233" s="0">
         <v>57</v>
       </c>
-      <c r="D232">
+      <c r="D233" s="0">
         <v>25.301642781957714</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233">
+      <c r="E233" s="0">
+        <v>49.994140747796585</v>
+      </c>
+      <c r="F233" s="0">
+        <v>1.6384310184528632</v>
+      </c>
+    </row>
+    <row r="234" x14ac:dyDescent="0.2">
+      <c r="A234" s="0">
         <v>42</v>
       </c>
-      <c r="B233">
+      <c r="B234" s="0">
         <v>1</v>
       </c>
-      <c r="C233">
+      <c r="C234" s="0">
         <v>69</v>
       </c>
-      <c r="D233">
+      <c r="D234" s="0">
         <v>26.126682616865217</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234">
+      <c r="E234" s="0">
+        <v>22.708223012613846</v>
+      </c>
+      <c r="F234" s="0">
+        <v>1.3546504569713573</v>
+      </c>
+    </row>
+    <row r="235" x14ac:dyDescent="0.2">
+      <c r="A235" s="0">
         <v>42</v>
       </c>
-      <c r="B234">
+      <c r="B235" s="0">
         <v>2</v>
       </c>
-      <c r="C234">
+      <c r="C235" s="0">
         <v>91</v>
       </c>
-      <c r="D234">
+      <c r="D235" s="0">
         <v>24.055252050770953</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235">
+      <c r="E235" s="0">
+        <v>21.011985200474438</v>
+      </c>
+      <c r="F235" s="0">
+        <v>1.5898166862912215</v>
+      </c>
+    </row>
+    <row r="236" x14ac:dyDescent="0.2">
+      <c r="A236" s="0">
         <v>42</v>
       </c>
-      <c r="B235">
-        <v>3</v>
-      </c>
-      <c r="C235">
+      <c r="B236" s="0">
+        <v>3</v>
+      </c>
+      <c r="C236" s="0">
         <v>67</v>
       </c>
-      <c r="D235">
+      <c r="D236" s="0">
         <v>25.109443538676693</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236">
+      <c r="E236" s="0">
+        <v>1.7736758425672812</v>
+      </c>
+      <c r="F236" s="0">
+        <v>1.2598981310908608</v>
+      </c>
+    </row>
+    <row r="237" x14ac:dyDescent="0.2">
+      <c r="A237" s="0">
         <v>42</v>
       </c>
-      <c r="B236">
+      <c r="B237" s="0">
         <v>4</v>
       </c>
-      <c r="C236">
+      <c r="C237" s="0">
         <v>66</v>
       </c>
-      <c r="D236">
+      <c r="D237" s="0">
         <v>26.155702730781492</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237">
+      <c r="E237" s="0">
+        <v>18.302718088649158</v>
+      </c>
+      <c r="F237" s="0">
+        <v>1.2190378124340251</v>
+      </c>
+    </row>
+    <row r="238" x14ac:dyDescent="0.2">
+      <c r="A238" s="0">
         <v>42</v>
       </c>
-      <c r="B237">
+      <c r="B238" s="0">
         <v>5</v>
       </c>
-      <c r="C237">
+      <c r="C238" s="0">
         <v>67</v>
       </c>
-      <c r="D237">
+      <c r="D238" s="0">
         <v>21.850697075992539</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238">
+      <c r="E238" s="0">
+        <v>47.930125900041574</v>
+      </c>
+      <c r="F238" s="0">
+        <v>1.2950128246358279</v>
+      </c>
+    </row>
+    <row r="239" x14ac:dyDescent="0.2">
+      <c r="A239" s="0">
         <v>43</v>
       </c>
-      <c r="B238">
+      <c r="B239" s="0">
         <v>1</v>
       </c>
-      <c r="C238">
+      <c r="C239" s="0">
         <v>60</v>
       </c>
-      <c r="D238">
+      <c r="D239" s="0">
         <v>26.113680977900053</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239">
+      <c r="E239" s="0">
+        <v>72.589247642307441</v>
+      </c>
+      <c r="F239" s="0">
+        <v>1.4154298129255101</v>
+      </c>
+    </row>
+    <row r="240" x14ac:dyDescent="0.2">
+      <c r="A240" s="0">
         <v>43</v>
       </c>
-      <c r="B239">
+      <c r="B240" s="0">
         <v>2</v>
       </c>
-      <c r="C239">
+      <c r="C240" s="0">
         <v>65</v>
       </c>
-      <c r="D239">
+      <c r="D240" s="0">
         <v>24.184923124762772</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240">
+      <c r="E240" s="0">
+        <v>68.384473387568704</v>
+      </c>
+      <c r="F240" s="0">
+        <v>1.5165614830320604</v>
+      </c>
+    </row>
+    <row r="241" x14ac:dyDescent="0.2">
+      <c r="A241" s="0">
         <v>43</v>
       </c>
-      <c r="B240">
-        <v>3</v>
-      </c>
-      <c r="C240">
+      <c r="B241" s="0">
+        <v>3</v>
+      </c>
+      <c r="C241" s="0">
         <v>59</v>
       </c>
-      <c r="D240">
+      <c r="D241" s="0">
         <v>24.580428000984824</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241">
+      <c r="E241" s="0">
+        <v>3.8075475386591422</v>
+      </c>
+      <c r="F241" s="0">
+        <v>1.2174199117416182</v>
+      </c>
+    </row>
+    <row r="242" x14ac:dyDescent="0.2">
+      <c r="A242" s="0">
         <v>43</v>
       </c>
-      <c r="B241">
+      <c r="B242" s="0">
         <v>4</v>
       </c>
-      <c r="C241">
+      <c r="C242" s="0">
         <v>63</v>
       </c>
-      <c r="D241">
+      <c r="D242" s="0">
         <v>24.346352281232878</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242">
+      <c r="E242" s="0">
+        <v>14.571407313780091</v>
+      </c>
+      <c r="F242" s="0">
+        <v>1.3877906594159428</v>
+      </c>
+    </row>
+    <row r="243" x14ac:dyDescent="0.2">
+      <c r="A243" s="0">
         <v>43</v>
       </c>
-      <c r="B242">
+      <c r="B243" s="0">
         <v>5</v>
       </c>
-      <c r="C242">
+      <c r="C243" s="0">
         <v>67</v>
       </c>
-      <c r="D242">
+      <c r="D243" s="0">
         <v>23.217883506119378</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243">
+      <c r="E243" s="0">
+        <v>13.001015519089744</v>
+      </c>
+      <c r="F243" s="0">
+        <v>1.1493498549819545</v>
+      </c>
+    </row>
+    <row r="244" x14ac:dyDescent="0.2">
+      <c r="A244" s="0">
         <v>44</v>
       </c>
-      <c r="B243">
+      <c r="B244" s="0">
         <v>1</v>
       </c>
-      <c r="C243">
+      <c r="C244" s="0">
         <v>83</v>
       </c>
-      <c r="D243">
+      <c r="D244" s="0">
         <v>18.366160742279977</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244">
+      <c r="E244" s="0">
+        <v>2.8221677871656303</v>
+      </c>
+      <c r="F244" s="0">
+        <v>1.5906668511275341</v>
+      </c>
+    </row>
+    <row r="245" x14ac:dyDescent="0.2">
+      <c r="A245" s="0">
         <v>44</v>
       </c>
-      <c r="B244">
+      <c r="B245" s="0">
         <v>2</v>
       </c>
-      <c r="C244">
+      <c r="C245" s="0">
         <v>74</v>
       </c>
-      <c r="D244">
+      <c r="D245" s="0">
         <v>20.234166140484049</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245">
+      <c r="E245" s="0">
+        <v>72.210920787738402</v>
+      </c>
+      <c r="F245" s="0">
+        <v>1.5574048844649186</v>
+      </c>
+    </row>
+    <row r="246" x14ac:dyDescent="0.2">
+      <c r="A246" s="0">
         <v>44</v>
       </c>
-      <c r="B245">
-        <v>3</v>
-      </c>
-      <c r="C245">
+      <c r="B246" s="0">
+        <v>3</v>
+      </c>
+      <c r="C246" s="0">
         <v>67</v>
       </c>
-      <c r="D245">
+      <c r="D246" s="0">
         <v>22.922289844687057</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246">
+      <c r="E246" s="0">
+        <v>61.949833689709777</v>
+      </c>
+      <c r="F246" s="0">
+        <v>1.416858156549911</v>
+      </c>
+    </row>
+    <row r="247" x14ac:dyDescent="0.2">
+      <c r="A247" s="0">
         <v>44</v>
       </c>
-      <c r="B246">
+      <c r="B247" s="0">
         <v>4</v>
       </c>
-      <c r="C246">
+      <c r="C247" s="0">
         <v>62</v>
       </c>
-      <c r="D246">
+      <c r="D247" s="0">
         <v>24.923069714945971</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247">
+      <c r="E247" s="0">
+        <v>20.678445689591314</v>
+      </c>
+      <c r="F247" s="0">
+        <v>1.4531613257379568</v>
+      </c>
+    </row>
+    <row r="248" x14ac:dyDescent="0.2">
+      <c r="A248" s="0">
         <v>44</v>
       </c>
-      <c r="B247">
+      <c r="B248" s="0">
         <v>5</v>
       </c>
-      <c r="C247">
+      <c r="C248" s="0">
         <v>63</v>
       </c>
-      <c r="D247">
+      <c r="D248" s="0">
         <v>23.681343631087167</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248">
+      <c r="E248" s="0">
+        <v>19.675740434885459</v>
+      </c>
+      <c r="F248" s="0">
+        <v>1.5628498452629103</v>
+      </c>
+    </row>
+    <row r="249" x14ac:dyDescent="0.2">
+      <c r="A249" s="0">
         <v>45</v>
       </c>
-      <c r="B248">
+      <c r="B249" s="0">
         <v>1</v>
       </c>
-      <c r="C248">
+      <c r="C249" s="0">
         <v>55</v>
       </c>
-      <c r="D248">
+      <c r="D249" s="0">
         <v>27.262714159202414</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249">
+      <c r="E249" s="0">
+        <v>19.609504352425791</v>
+      </c>
+      <c r="F249" s="0">
+        <v>1.1456560562509297</v>
+      </c>
+    </row>
+    <row r="250" x14ac:dyDescent="0.2">
+      <c r="A250" s="0">
         <v>45</v>
       </c>
-      <c r="B249">
+      <c r="B250" s="0">
         <v>2</v>
       </c>
-      <c r="C249">
+      <c r="C250" s="0">
         <v>57</v>
       </c>
-      <c r="D249">
+      <c r="D250" s="0">
         <v>22.753763296749515</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250">
+      <c r="E250" s="0">
+        <v>8.8158282752892863</v>
+      </c>
+      <c r="F250" s="0">
+        <v>1.2400133408909804</v>
+      </c>
+    </row>
+    <row r="251" x14ac:dyDescent="0.2">
+      <c r="A251" s="0">
         <v>45</v>
       </c>
-      <c r="B250">
-        <v>3</v>
-      </c>
-      <c r="C250">
+      <c r="B251" s="0">
+        <v>3</v>
+      </c>
+      <c r="C251" s="0">
         <v>48</v>
       </c>
-      <c r="D250">
+      <c r="D251" s="0">
         <v>28.859458359521042</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251">
+      <c r="E251" s="0">
+        <v>89.432984385635933</v>
+      </c>
+      <c r="F251" s="0">
+        <v>1.1697385962086304</v>
+      </c>
+    </row>
+    <row r="252" x14ac:dyDescent="0.2">
+      <c r="A252" s="0">
         <v>45</v>
       </c>
-      <c r="B251">
+      <c r="B252" s="0">
         <v>4</v>
       </c>
-      <c r="C251">
+      <c r="C252" s="0">
         <v>77</v>
       </c>
-      <c r="D251">
+      <c r="D252" s="0">
         <v>20.161729077955993</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252">
+      <c r="E252" s="0">
+        <v>1.21656517660399</v>
+      </c>
+      <c r="F252" s="0">
+        <v>1.2708994984716</v>
+      </c>
+    </row>
+    <row r="253" x14ac:dyDescent="0.2">
+      <c r="A253" s="0">
         <v>45</v>
       </c>
-      <c r="B252">
+      <c r="B253" s="0">
         <v>5</v>
       </c>
-      <c r="C252">
+      <c r="C253" s="0">
         <v>57</v>
       </c>
-      <c r="D252">
+      <c r="D253" s="0">
         <v>23.492095432453802</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253">
+      <c r="E253" s="0">
+        <v>108.53024936029166</v>
+      </c>
+      <c r="F253" s="0">
+        <v>1.4106982682855422</v>
+      </c>
+    </row>
+    <row r="254" x14ac:dyDescent="0.2">
+      <c r="A254" s="0">
         <v>46</v>
       </c>
-      <c r="B253">
+      <c r="B254" s="0">
         <v>1</v>
       </c>
-      <c r="C253">
+      <c r="C254" s="0">
         <v>62</v>
       </c>
-      <c r="D253">
+      <c r="D254" s="0">
         <v>20.437453015713764</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254">
+      <c r="E254" s="0">
+        <v>43.012154328993937</v>
+      </c>
+      <c r="F254" s="0">
+        <v>1.3944684650226782</v>
+      </c>
+    </row>
+    <row r="255" x14ac:dyDescent="0.2">
+      <c r="A255" s="0">
         <v>46</v>
       </c>
-      <c r="B254">
+      <c r="B255" s="0">
         <v>2</v>
       </c>
-      <c r="C254">
+      <c r="C255" s="0">
         <v>54</v>
       </c>
-      <c r="D254">
+      <c r="D255" s="0">
         <v>26.612862244633501</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255">
+      <c r="E255" s="0">
+        <v>2.0118926960708468</v>
+      </c>
+      <c r="F255" s="0">
+        <v>1.3813920539661366</v>
+      </c>
+    </row>
+    <row r="256" x14ac:dyDescent="0.2">
+      <c r="A256" s="0">
         <v>46</v>
       </c>
-      <c r="B255">
-        <v>3</v>
-      </c>
-      <c r="C255">
+      <c r="B256" s="0">
+        <v>3</v>
+      </c>
+      <c r="C256" s="0">
         <v>63</v>
       </c>
-      <c r="D255">
+      <c r="D256" s="0">
         <v>21.202127503665107</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256">
+      <c r="E256" s="0">
+        <v>86.822667686815464</v>
+      </c>
+      <c r="F256" s="0">
+        <v>1.4340363019536002</v>
+      </c>
+    </row>
+    <row r="257" x14ac:dyDescent="0.2">
+      <c r="A257" s="0">
         <v>46</v>
       </c>
-      <c r="B256">
+      <c r="B257" s="0">
         <v>4</v>
       </c>
-      <c r="C256">
+      <c r="C257" s="0">
         <v>72</v>
       </c>
-      <c r="D256">
+      <c r="D257" s="0">
         <v>21.915502434719777</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257">
+      <c r="E257" s="0">
+        <v>5.4450714989570184</v>
+      </c>
+      <c r="F257" s="0">
+        <v>1.2319813425427828</v>
+      </c>
+    </row>
+    <row r="258" x14ac:dyDescent="0.2">
+      <c r="A258" s="0">
         <v>46</v>
       </c>
-      <c r="B257">
+      <c r="B258" s="0">
         <v>5</v>
       </c>
-      <c r="C257">
+      <c r="C258" s="0">
         <v>61</v>
       </c>
-      <c r="D257">
+      <c r="D258" s="0">
         <v>23.093439984376833</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258">
+      <c r="E258" s="0">
+        <v>76.279793973019764</v>
+      </c>
+      <c r="F258" s="0">
+        <v>1.4525078460820886</v>
+      </c>
+    </row>
+    <row r="259" x14ac:dyDescent="0.2">
+      <c r="A259" s="0">
         <v>47</v>
       </c>
-      <c r="B258">
+      <c r="B259" s="0">
         <v>1</v>
       </c>
-      <c r="C258">
+      <c r="C259" s="0">
         <v>74</v>
       </c>
-      <c r="D258">
+      <c r="D259" s="0">
         <v>19.837536470808196</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259">
+      <c r="E259" s="0">
+        <v>4.1059205692645229</v>
+      </c>
+      <c r="F259" s="0">
+        <v>1.4626369213651986</v>
+      </c>
+    </row>
+    <row r="260" x14ac:dyDescent="0.2">
+      <c r="A260" s="0">
         <v>47</v>
       </c>
-      <c r="B259">
+      <c r="B260" s="0">
         <v>2</v>
       </c>
-      <c r="C259">
+      <c r="C260" s="0">
         <v>76</v>
       </c>
-      <c r="D259">
+      <c r="D260" s="0">
         <v>20.477763550076713</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260">
+      <c r="E260" s="0">
+        <v>55.065957059196535</v>
+      </c>
+      <c r="F260" s="0">
+        <v>1.5514962503544605</v>
+      </c>
+    </row>
+    <row r="261" x14ac:dyDescent="0.2">
+      <c r="A261" s="0">
         <v>47</v>
       </c>
-      <c r="B260">
-        <v>3</v>
-      </c>
-      <c r="C260">
+      <c r="B261" s="0">
+        <v>3</v>
+      </c>
+      <c r="C261" s="0">
         <v>67</v>
       </c>
-      <c r="D260">
+      <c r="D261" s="0">
         <v>21.969578513304249</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261">
+      <c r="E261" s="0">
+        <v>55.894548202047325</v>
+      </c>
+      <c r="F261" s="0">
+        <v>1.6784208412527475</v>
+      </c>
+    </row>
+    <row r="262" x14ac:dyDescent="0.2">
+      <c r="A262" s="0">
         <v>47</v>
       </c>
-      <c r="B261">
+      <c r="B262" s="0">
         <v>4</v>
       </c>
-      <c r="C261">
+      <c r="C262" s="0">
         <v>52</v>
       </c>
-      <c r="D261">
+      <c r="D262" s="0">
         <v>25.345940800491057</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262">
+      <c r="E262" s="0">
+        <v>78.49583115261234</v>
+      </c>
+      <c r="F262" s="0">
+        <v>1.3683831236642432</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0">
         <v>47</v>
       </c>
-      <c r="B262">
+      <c r="B263" s="0">
         <v>5</v>
       </c>
-      <c r="C262">
+      <c r="C263" s="0">
         <v>76</v>
       </c>
-      <c r="D262">
+      <c r="D263" s="0">
         <v>24.163557412821916</v>
       </c>
+      <c r="E263" s="0">
+        <v>32.022938907045891</v>
+      </c>
+      <c r="F263" s="0">
+        <v>1.596307360129797</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D306">
+  <sortState ref="A2:D306">
     <sortCondition ref="A2:A306"/>
     <sortCondition ref="B2:B306"/>
   </sortState>
